--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="163">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -432,100 +432,79 @@
     <t>February</t>
   </si>
   <si>
-    <t>Citi Med</t>
+    <t>Chitungwiza Central Hospital</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
+    <t>CHEGUTU</t>
+  </si>
+  <si>
     <t>CHITUNGWIZA</t>
   </si>
   <si>
-    <t>CHEGUTU</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Client is healing</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>COA</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Client receveid care</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
     <t>Nurse</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>Chegutu hosp</t>
-  </si>
-  <si>
-    <t>Zengeza Clinic</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>Norton hosp</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Surgical</t>
   </si>
   <si>
-    <t>Client had elavated BP</t>
-  </si>
-  <si>
-    <t>Hypertensive</t>
+    <t>20</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>41</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>000453</t>
+    <t>67336</t>
   </si>
 </sst>
 </file>
@@ -883,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EG4"/>
+  <dimension ref="A1:EG3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,26 +1282,17 @@
       </c>
     </row>
     <row r="2" spans="1:137">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1330,47 +1300,20 @@
       <c r="I2" t="s">
         <v>142</v>
       </c>
-      <c r="J2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" t="s">
-        <v>144</v>
-      </c>
       <c r="O2">
         <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" t="s">
-        <v>150</v>
       </c>
       <c r="S2" t="s">
         <v>140</v>
       </c>
       <c r="T2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="V2" t="s">
-        <v>153</v>
-      </c>
-      <c r="W2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="X2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1388,185 +1331,188 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="s">
         <v>158</v>
       </c>
-      <c r="AE2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
       <c r="CP2">
         <v>0</v>
       </c>
@@ -1582,47 +1528,41 @@
       <c r="CT2">
         <v>0</v>
       </c>
-      <c r="CU2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>158</v>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
       </c>
       <c r="DL2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="DM2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DN2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="DO2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="DP2" t="s">
         <v>142</v>
@@ -1634,72 +1574,111 @@
         <v>158</v>
       </c>
       <c r="DS2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>161</v>
+      </c>
+      <c r="EB2" t="s">
         <v>142</v>
       </c>
-      <c r="DT2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>155</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>167</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>168</v>
-      </c>
       <c r="EC2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="ED2" t="s">
-        <v>144</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="EF2">
         <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:137">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
       <c r="D3" t="s">
         <v>141</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
         <v>143</v>
       </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
       <c r="O3">
         <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" t="s">
+        <v>150</v>
       </c>
       <c r="S3" t="s">
         <v>141</v>
       </c>
       <c r="T3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="V3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
-        <v>155</v>
-      </c>
-      <c r="X3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1717,16 +1696,13 @@
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AE3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AF3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1743,14 +1719,38 @@
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AU3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>158</v>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1767,41 +1767,71 @@
       <c r="BB3">
         <v>0</v>
       </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
       <c r="BJ3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BK3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BL3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR3" t="s">
         <v>156</v>
       </c>
-      <c r="BM3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>158</v>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>137</v>
       </c>
       <c r="BU3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BX3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -1824,9 +1854,6 @@
       <c r="CF3">
         <v>0</v>
       </c>
-      <c r="CG3" t="s">
-        <v>158</v>
-      </c>
       <c r="CH3">
         <v>0</v>
       </c>
@@ -1848,9 +1875,6 @@
       <c r="CN3">
         <v>0</v>
       </c>
-      <c r="CO3" t="s">
-        <v>161</v>
-      </c>
       <c r="CP3">
         <v>0</v>
       </c>
@@ -1866,26 +1890,41 @@
       <c r="CT3">
         <v>0</v>
       </c>
-      <c r="CU3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>158</v>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
       </c>
       <c r="DL3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="DM3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DN3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DO3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="DP3" t="s">
         <v>143</v>
@@ -1894,266 +1933,45 @@
         <v>0</v>
       </c>
       <c r="DR3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="s">
         <v>161</v>
       </c>
-      <c r="DS3" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>167</v>
-      </c>
       <c r="EB3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="EC3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="ED3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>162</v>
       </c>
       <c r="EF3">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:137">
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" t="s">
-        <v>152</v>
-      </c>
-      <c r="V4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>144</v>
-      </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>144</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY4">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>144</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>158</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>158</v>
-      </c>
-      <c r="EF4">
         <v>2025</v>
       </c>
     </row>
@@ -2222,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
         <v>145</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>146</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
       </c>
       <c r="H2" t="s">
         <v>148</v>
@@ -2240,10 +2058,10 @@
         <v>150</v>
       </c>
       <c r="K2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" t="s">
         <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2280,23 +2098,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,58 +441,64 @@
     <t>facilityType</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
     <t>LUPANE</t>
   </si>
   <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Fatima Mission Clinic</t>
+  </si>
+  <si>
+    <t>Ganye Clinic</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:22.600099Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:20.107637Z</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2025</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Chemahororo Clinic</t>
-  </si>
-  <si>
-    <t>Dongamuzi Rural Health Centre</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>submission</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Client had a low viral count</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:19:08.369689Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:32:49.439658Z</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Viral Load</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -1291,8 +1297,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1328,37 +1334,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
         <v>146</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>147</v>
-      </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" t="s">
         <v>150</v>
       </c>
-      <c r="W2" t="s">
-        <v>151</v>
-      </c>
-      <c r="X2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>151</v>
+      <c r="Y2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1376,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -1472,25 +1478,25 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BM2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="BN2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="BO2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="BP2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BQ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BR2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1499,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BW2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BX2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1514,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="CA2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CB2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1610,43 +1616,43 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DQ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DR2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DS2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DT2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DW2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DX2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DY2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DZ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EA2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EB2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1654,20 +1660,20 @@
       <c r="ED2" t="s">
         <v>158</v>
       </c>
-      <c r="EE2" t="s">
-        <v>158</v>
+      <c r="EE2">
+        <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="EG2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="EK2">
         <v>0</v>
@@ -1683,23 +1689,23 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="G3" t="s">
-        <v>143</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1732,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
+        <v>147</v>
+      </c>
+      <c r="U3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" t="s">
         <v>148</v>
-      </c>
-      <c r="U3" t="s">
-        <v>149</v>
-      </c>
-      <c r="V3" t="s">
-        <v>150</v>
       </c>
       <c r="W3" t="s">
         <v>149</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
+      <c r="X3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>152</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1768,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>153</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1824,8 +1830,8 @@
       <c r="AX3">
         <v>0</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
+      <c r="AY3" t="s">
+        <v>151</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1864,181 +1870,184 @@
         <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BM3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BN3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BO3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BP3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BQ3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BR3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BT3">
         <v>0</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>145</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="s">
         <v>152</v>
       </c>
-      <c r="BV3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="s">
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="s">
         <v>157</v>
       </c>
-      <c r="CA3" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>146</v>
-      </c>
       <c r="DW3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="DX3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DY3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DZ3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="EA3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EB3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2050,16 +2059,16 @@
         <v>158</v>
       </c>
       <c r="EF3" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="EG3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="EK3">
         <v>0</v>
@@ -2072,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,8 +2135,8 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>141</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2151,6 +2160,44 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -2161,7 +2208,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2188,23 +2235,43 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>157</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22188" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="AEs" sheetId="2" r:id="rId2"/>
     <sheet name="Referrals" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="185">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,76 +454,154 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Chitave Clinic</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2025-05-20T12:09:27.291927Z</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Client is steadly healing after receiving treatment</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>Chitsungo Mission Hospital</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>2025-05-20T12:11:38.497115Z</t>
+  </si>
+  <si>
+    <t>00338</t>
+  </si>
+  <si>
     <t>LUPANE</t>
   </si>
   <si>
-    <t>GOKWE SOUTH</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>Fatima Mission Clinic</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:22.600099Z</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Fatima Mission Clinic</t>
-  </si>
-  <si>
     <t>Ganye Clinic</t>
   </si>
   <si>
-    <t>submission</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2025-05-19T13:39:22.600099Z</t>
-  </si>
-  <si>
     <t>2025-05-19T13:38:20.107637Z</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>2025</t>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Hesketh Clinic</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2025-05-21T06:58:05.372240Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,19 +609,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -553,9 +981,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -563,11 +1233,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -850,17 +1572,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:EK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:141">
       <c r="A1" s="1" t="s">
@@ -1313,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1334,31 +2058,31 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" t="s">
         <v>145</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>146</v>
       </c>
-      <c r="U2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" t="s">
         <v>148</v>
-      </c>
-      <c r="W2" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" t="s">
-        <v>150</v>
       </c>
       <c r="Y2" t="s">
         <v>149</v>
@@ -1382,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AH2" t="s">
         <v>150</v>
       </c>
       <c r="AI2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1435,11 +2159,11 @@
       <c r="AW2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
+      <c r="AX2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>143</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1478,25 +2202,25 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BM2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BN2" t="s">
         <v>149</v>
       </c>
       <c r="BO2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BP2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BQ2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BR2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1505,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BW2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="BX2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1520,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="CA2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="CB2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CC2" t="s">
         <v>149</v>
@@ -1594,9 +2318,15 @@
       <c r="CZ2">
         <v>0</v>
       </c>
+      <c r="DA2" t="s">
+        <v>150</v>
+      </c>
       <c r="DB2">
         <v>0</v>
       </c>
+      <c r="DC2" t="s">
+        <v>143</v>
+      </c>
       <c r="DD2">
         <v>0</v>
       </c>
@@ -1616,81 +2346,81 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="s">
         <v>145</v>
       </c>
-      <c r="DQ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>145</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>145</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>145</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>145</v>
-      </c>
-      <c r="EC2">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>158</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>143</v>
-      </c>
       <c r="EG2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="EK2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:141">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1705,387 +2435,1570 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>161</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="N3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O3" t="s">
+        <v>149</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" t="s">
+        <v>163</v>
       </c>
       <c r="T3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" t="s">
+        <v>146</v>
+      </c>
+      <c r="W3" t="s">
         <v>147</v>
       </c>
-      <c r="U3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>148</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>154</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="s">
         <v>149</v>
       </c>
-      <c r="X3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="DQ3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>155</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>158</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>168</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" t="s">
+        <v>170</v>
+      </c>
+      <c r="V4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>170</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X5" t="s">
         <v>149</v>
       </c>
-      <c r="AH3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="Y5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW5" t="s">
         <v>153</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BX5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CB5" t="s">
         <v>149</v>
       </c>
-      <c r="BM3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
+      <c r="CC5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>178</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>149</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="s">
         <v>155</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="EE5" t="s">
+        <v>155</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>179</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="s">
         <v>156</v>
       </c>
-      <c r="BX3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>152</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>152</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EC3">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>158</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>158</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>159</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EI3">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="EK3">
+      <c r="EK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>182</v>
+      </c>
+      <c r="U6" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W6" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>143</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>150</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>181</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>155</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>181</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EK6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -2126,93 +4039,59 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2245,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2265,16 +4144,57 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="185">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -439,6 +439,138 @@
   </si>
   <si>
     <t>facilityType</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Beula</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>MATOBO</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZA</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>antibiotic and health education</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>C IN 2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>Natisa</t>
+  </si>
+  <si>
+    <t>Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:43:55.809685Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:16.894645Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:08.275733Z</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>2025M00009</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
+    <t>hypertensive</t>
+  </si>
+  <si>
+    <t>OPD</t>
   </si>
 </sst>
 </file>
@@ -796,7 +928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK1"/>
+  <dimension ref="A1:EK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,6 +1357,1203 @@
       </c>
       <c r="EK1" s="1" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:141">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>146</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>153</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>181</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" t="s">
+        <v>147</v>
+      </c>
+      <c r="V3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>152</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>153</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>147</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>152</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>152</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>146</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>152</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>147</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>152</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>176</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>178</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>180</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>152</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1234,24 +2563,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="221">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -447,18 +447,39 @@
     <t>Beula</t>
   </si>
   <si>
+    <t>Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>Chitungwiza Central Hospital</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
     <t>MATOBO</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
     <t>CHITUNGWIZA</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -468,12 +489,18 @@
     <t>antibiotic and health education</t>
   </si>
   <si>
+    <t>antibiotic</t>
+  </si>
+  <si>
     <t>Moderate</t>
   </si>
   <si>
     <t>C IN 2</t>
   </si>
   <si>
+    <t>CIN 2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -486,63 +513,135 @@
     <t>22</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>2025-04-04</t>
   </si>
   <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>Chitsungo Mission Hospital</t>
+  </si>
+  <si>
     <t>Natisa</t>
   </si>
   <si>
     <t>Zengeza Clinic</t>
   </si>
   <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>submission</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>85</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>64</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Surgical</t>
   </si>
   <si>
+    <t>treatment</t>
+  </si>
+  <si>
     <t>2025-05-22T09:43:55.809685Z</t>
   </si>
   <si>
+    <t>2025-05-23T09:05:46.928296Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T09:14:41.249283Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T08:43:58.158312Z</t>
+  </si>
+  <si>
     <t>2025-05-22T09:39:16.894645Z</t>
   </si>
   <si>
     <t>2025-05-22T09:34:08.275733Z</t>
   </si>
   <si>
+    <t>opd</t>
+  </si>
+  <si>
     <t>74</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -558,13 +657,22 @@
     <t>OK</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>194</t>
   </si>
   <si>
     <t>2025M00009</t>
   </si>
   <si>
+    <t>0009</t>
+  </si>
+  <si>
     <t>Outreach</t>
+  </si>
+  <si>
+    <t>Static</t>
   </si>
   <si>
     <t>hypertensive</t>
@@ -928,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK4"/>
+  <dimension ref="A1:EK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1367,10 +1475,10 @@
         <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1385,55 +1493,55 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="T2" t="s">
         <v>142</v>
       </c>
       <c r="U2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="V2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Y2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1454,16 +1562,16 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AI2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1550,40 +1658,40 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BM2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="BN2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="BO2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BP2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BQ2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BR2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BT2" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="BW2" t="s">
         <v>141</v>
       </c>
       <c r="BX2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1595,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="CC2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="CD2">
         <v>0</v>
@@ -1619,112 +1727,112 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="s">
         <v>161</v>
       </c>
-      <c r="CK2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DH2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>152</v>
-      </c>
       <c r="DQ2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DR2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DS2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DT2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DW2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DX2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="DY2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DZ2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EA2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EB2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1736,36 +1844,36 @@
         <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="EG2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EH2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EI2" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="EJ2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="EK2" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:141">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1780,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1801,46 +1909,46 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" t="s">
+        <v>172</v>
+      </c>
+      <c r="W3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA3" t="s">
         <v>153</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" t="s">
-        <v>159</v>
-      </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
+      <c r="AB3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>162</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1848,71 +1956,71 @@
       <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL3" t="s">
         <v>153</v>
       </c>
-      <c r="AG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
+      <c r="AM3" t="s">
+        <v>161</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AO3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>162</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -1923,47 +2031,47 @@
       <c r="BD3">
         <v>0</v>
       </c>
-      <c r="BE3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>153</v>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="BM3" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="BN3" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="BO3" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="BP3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="BQ3" t="s">
         <v>153</v>
       </c>
       <c r="BR3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -1972,46 +2080,46 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="BW3" t="s">
         <v>141</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>189</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF3" t="s">
         <v>153</v>
       </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>153</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
+      <c r="CG3" t="s">
+        <v>161</v>
       </c>
       <c r="CH3">
         <v>0</v>
       </c>
-      <c r="CI3" t="s">
-        <v>147</v>
+      <c r="CI3">
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -2058,95 +2166,110 @@
       <c r="CX3">
         <v>0</v>
       </c>
-      <c r="CZ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>152</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>153</v>
+      <c r="CY3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>154</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
       </c>
       <c r="DP3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="DQ3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DR3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DS3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="DT3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DV3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DW3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="DX3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="DY3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="DZ3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EA3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EB3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
-      <c r="ED3" t="s">
-        <v>179</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>179</v>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="EG3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="EH3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="EK3" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2160,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2175,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2196,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2208,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="V4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="W4" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y4" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Z4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>183</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2243,26 +2366,26 @@
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AF4" t="s">
-        <v>153</v>
+      <c r="AF4">
+        <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AH4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AI4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AJ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>162</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2270,47 +2393,47 @@
       <c r="AN4">
         <v>0</v>
       </c>
-      <c r="AO4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>153</v>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AX4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AY4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AZ4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
+      <c r="BB4" t="s">
+        <v>162</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -2318,47 +2441,47 @@
       <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BE4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>153</v>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
       </c>
       <c r="BL4" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="BM4" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="BN4" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="BO4" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="BP4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BQ4" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="BR4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2367,192 +2490,1392 @@
         <v>0</v>
       </c>
       <c r="BV4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="BW4" t="s">
         <v>141</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>161</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>161</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT4" t="s">
         <v>152</v>
       </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="s">
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>152</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>162</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>179</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>162</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>153</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="J5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" t="s">
+      <c r="V5" t="s">
+        <v>172</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>153</v>
       </c>
-      <c r="CD4" t="s">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
         <v>153</v>
       </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="s">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>204</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>153</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>161</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>162</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>162</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>153</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>162</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>216</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
       </c>
-      <c r="CR4" t="s">
-        <v>152</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>152</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>166</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>167</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>168</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>152</v>
-      </c>
-      <c r="DS4" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>169</v>
+      </c>
+      <c r="U6" t="s">
+        <v>154</v>
+      </c>
+      <c r="V6" t="s">
+        <v>172</v>
+      </c>
+      <c r="W6" t="s">
+        <v>154</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>154</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>161</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>161</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>162</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>154</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>161</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>161</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:141">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" t="s">
+        <v>172</v>
+      </c>
+      <c r="W7" t="s">
         <v>175</v>
       </c>
-      <c r="DT4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DU4">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>176</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>153</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>177</v>
-      </c>
-      <c r="DY4" t="s">
+      <c r="X7" t="s">
         <v>178</v>
       </c>
-      <c r="DZ4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>180</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>153</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>152</v>
-      </c>
-      <c r="EI4">
-        <v>0</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK4">
+      <c r="Y7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>206</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>150</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>161</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>161</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>185</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>161</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>154</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>208</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>209</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>161</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>162</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>209</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>212</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>214</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>162</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>161</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>145</v>
+      </c>
+      <c r="EK7">
         <v>0</v>
       </c>
     </row>
@@ -2563,7 +3886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2612,37 +3935,89 @@
         <v>141</v>
       </c>
       <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
         <v>156</v>
       </c>
-      <c r="K2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L2" t="s">
-        <v>181</v>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2683,19 +4058,19 @@
         <v>141</v>
       </c>
       <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2703,33 +4078,33 @@
         <v>141</v>
       </c>
       <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" t="s">
-        <v>143</v>
-      </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="217">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -456,21 +456,39 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>CHITUNGWIZA</t>
+  </si>
+  <si>
     <t>126</t>
   </si>
   <si>
     <t>96</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
+    <t>Citi Med</t>
+  </si>
+  <si>
+    <t>Seke North Clinic</t>
+  </si>
+  <si>
     <t>87</t>
   </si>
   <si>
+    <t>134</t>
+  </si>
+  <si>
     <t>submission</t>
   </si>
   <si>
@@ -480,18 +498,39 @@
     <t>28</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -501,31 +540,52 @@
     <t>3</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>4</t>
@@ -537,7 +597,22 @@
     <t>2025-05-23T09:14:41.249283Z</t>
   </si>
   <si>
-    <t>91</t>
+    <t>2025-05-27T16:58:58.988192Z</t>
+  </si>
+  <si>
+    <t>2025-05-27T17:17:21.994464Z</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>233</t>
   </si>
   <si>
     <t>OK</t>
@@ -549,7 +624,49 @@
     <t>5</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
     <t>Static</t>
+  </si>
+  <si>
+    <t>question1_cancelthisReferralReport</t>
+  </si>
+  <si>
+    <t>Keloids</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>phimosis</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>elevated BP</t>
+  </si>
+  <si>
+    <t>keloids</t>
+  </si>
+  <si>
+    <t>Urologist</t>
+  </si>
+  <si>
+    <t>Central hospital</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>0PD</t>
   </si>
 </sst>
 </file>
@@ -907,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK3"/>
+  <dimension ref="A1:EK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1385,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1400,31 +1517,31 @@
         <v>142</v>
       </c>
       <c r="U2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="V2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="W2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Z2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AB2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AC2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1436,25 +1553,25 @@
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AI2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="AJ2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AK2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AL2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AM2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1484,19 +1601,19 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AX2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AY2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AZ2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BB2">
         <v>0</v>
@@ -1529,25 +1646,25 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN2" t="s">
         <v>164</v>
       </c>
-      <c r="BM2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>168</v>
-      </c>
       <c r="BO2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="BP2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="BQ2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="BR2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1556,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="BW2" t="s">
         <v>141</v>
       </c>
       <c r="BX2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1571,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="CA2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC2" t="s">
         <v>164</v>
       </c>
-      <c r="CB2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>168</v>
-      </c>
       <c r="CD2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="CE2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="CF2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="CG2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1643,31 +1760,31 @@
         <v>0</v>
       </c>
       <c r="CY2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="DB2">
         <v>0</v>
       </c>
       <c r="DC2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="DD2">
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DH2">
         <v>0</v>
@@ -1682,61 +1799,61 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="DQ2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DR2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DS2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="DT2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DW2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DX2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DY2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DZ2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EA2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EB2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2" t="s">
-        <v>174</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>174</v>
+        <v>199</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="EG2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EH2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EI2">
         <v>0</v>
@@ -1745,7 +1862,7 @@
         <v>143</v>
       </c>
       <c r="EK2" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:141">
@@ -1774,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1795,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1807,31 +1924,31 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="W3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="X3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="Z3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AA3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AB3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1846,22 +1963,22 @@
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AH3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AI3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AJ3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AL3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -1894,22 +2011,22 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AY3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AZ3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -1939,25 +2056,25 @@
         <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="BM3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="BN3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO3" t="s">
         <v>169</v>
       </c>
-      <c r="BO3" t="s">
-        <v>157</v>
-      </c>
       <c r="BP3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="BQ3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="BR3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -1966,187 +2083,187 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="BW3" t="s">
         <v>141</v>
       </c>
       <c r="BX3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT3" t="s">
         <v>148</v>
       </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>167</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="s">
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW3" t="s">
         <v>148</v>
       </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>173</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>147</v>
-      </c>
       <c r="DX3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DY3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="DZ3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EA3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EB3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
       <c r="ED3" t="s">
-        <v>174</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>174</v>
+        <v>199</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="EG3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EH3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="EI3">
         <v>0</v>
@@ -2155,6 +2272,817 @@
         <v>143</v>
       </c>
       <c r="EK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>151</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>177</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>180</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>196</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>151</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>149</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>199</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>199</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>202</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>151</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" t="s">
+        <v>157</v>
+      </c>
+      <c r="W5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X5" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>161</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>168</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>170</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>172</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>175</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>178</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>181</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>198</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>171</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>169</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>199</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>199</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>203</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>171</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EK5">
         <v>0</v>
       </c>
     </row>
@@ -2254,13 +3182,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2271,52 +3199,235 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="245">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,196 +441,280 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZA</t>
+  </si>
+  <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>Chiroti Clinic</t>
+  </si>
+  <si>
+    <t>Chitsungo Mission Hospital</t>
+  </si>
+  <si>
+    <t>Citi Med</t>
+  </si>
+  <si>
+    <t>Deve Clinic</t>
+  </si>
+  <si>
+    <t>Gokwe South District Hospital</t>
+  </si>
+  <si>
+    <t>Hurungwe RH</t>
+  </si>
+  <si>
+    <t>Kapfunde Clinic</t>
+  </si>
+  <si>
+    <t>Nyamhunga Sengwe Clinic</t>
+  </si>
+  <si>
+    <t>Seke North Clinic</t>
+  </si>
+  <si>
+    <t>Zvipani Rural Health Centre</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs_ 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.666864Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T09:14:41.249283Z</t>
+  </si>
+  <si>
+    <t>2025-05-27T16:58:58.988192Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:35.340185Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:33.160767Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:33.771608Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.000353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.419887Z</t>
+  </si>
+  <si>
+    <t>2025-05-27T17:17:21.994464Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.820086Z</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
-    <t>Chidamoyo Mission Hospital</t>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>215</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>HURUNGWE</t>
-  </si>
-  <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
-    <t>CHITUNGWIZA</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Chitsungo Mission Hospital</t>
-  </si>
-  <si>
-    <t>Citi Med</t>
-  </si>
-  <si>
-    <t>Seke North Clinic</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>submission</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2025-05-23T09:05:46.928296Z</t>
-  </si>
-  <si>
-    <t>2025-05-23T09:14:41.249283Z</t>
-  </si>
-  <si>
-    <t>2025-05-27T16:58:58.988192Z</t>
-  </si>
-  <si>
-    <t>2025-05-27T17:17:21.994464Z</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>Static</t>
+  </si>
+  <si>
+    <t>Outreach</t>
   </si>
   <si>
     <t>question1_cancelthisReferralReport</t>
@@ -1024,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK5"/>
+  <dimension ref="A1:EK12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,18 +1540,18 @@
       </c>
     </row>
     <row r="2" spans="1:141">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -1481,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1492,8 +1576,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="M2" t="s">
+        <v>154</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1502,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1514,199 +1598,196 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="U2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="W2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Y2" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="Z2" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="AA2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AB2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AC2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>197</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AH2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AI2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BQ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="s">
         <v>172</v>
       </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>173</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>184</v>
-      </c>
       <c r="CB2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="CC2" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="CD2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CE2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="CF2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="CG2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1759,32 +1840,23 @@
       <c r="CX2">
         <v>0</v>
       </c>
-      <c r="CY2" t="s">
-        <v>151</v>
-      </c>
       <c r="CZ2">
         <v>0</v>
       </c>
-      <c r="DA2" t="s">
-        <v>176</v>
-      </c>
       <c r="DB2">
         <v>0</v>
       </c>
-      <c r="DC2" t="s">
-        <v>179</v>
-      </c>
       <c r="DD2">
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DH2">
         <v>0</v>
@@ -1799,70 +1871,61 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DR2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DT2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DU2">
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DW2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DX2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
-      <c r="ED2" t="s">
-        <v>199</v>
+      <c r="ED2">
+        <v>0</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="EG2" t="s">
-        <v>151</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="EK2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:141">
@@ -1876,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1891,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1912,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1924,199 +1987,199 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="U3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="V3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="W3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Y3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Z3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="BM3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="s">
         <v>173</v>
       </c>
-      <c r="AH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>185</v>
-      </c>
       <c r="CB3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="CC3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="CD3" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>179</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2170,25 +2233,25 @@
         <v>0</v>
       </c>
       <c r="CY3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="CZ3">
         <v>0</v>
       </c>
       <c r="DA3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="DB3">
         <v>0</v>
       </c>
       <c r="DC3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DF3">
         <v>0</v>
@@ -2196,12 +2259,12 @@
       <c r="DH3">
         <v>0</v>
       </c>
-      <c r="DI3" t="s">
-        <v>151</v>
-      </c>
       <c r="DJ3">
         <v>0</v>
       </c>
+      <c r="DK3" t="s">
+        <v>156</v>
+      </c>
       <c r="DL3">
         <v>0</v>
       </c>
@@ -2209,70 +2272,67 @@
         <v>0</v>
       </c>
       <c r="DP3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DQ3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DR3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DS3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="DT3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DU3">
         <v>0</v>
       </c>
       <c r="DV3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DW3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DX3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DY3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DZ3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EA3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EB3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
-      <c r="ED3" t="s">
-        <v>199</v>
+      <c r="ED3">
+        <v>0</v>
       </c>
       <c r="EE3">
         <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="EG3" t="s">
-        <v>151</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK3">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2286,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2301,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2322,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2334,31 +2394,31 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="U4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="V4" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="W4" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Y4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>189</v>
       </c>
       <c r="AA4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>178</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -2373,22 +2433,22 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AH4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AI4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>156</v>
       </c>
       <c r="AK4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>156</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -2421,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AX4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AY4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>156</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
+      <c r="BB4" t="s">
+        <v>156</v>
       </c>
       <c r="BC4">
         <v>0</v>
@@ -2466,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="BL4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="BM4" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="BN4" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO4" t="s">
         <v>189</v>
       </c>
-      <c r="BO4" t="s">
-        <v>151</v>
-      </c>
       <c r="BP4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="BQ4" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="BR4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2493,187 +2553,193 @@
         <v>0</v>
       </c>
       <c r="BV4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>189</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>178</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>179</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>147</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4" t="s">
         <v>193</v>
       </c>
-      <c r="BW4" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>151</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>172</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>174</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>177</v>
-      </c>
-      <c r="DB4">
-        <v>0</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>180</v>
-      </c>
-      <c r="DD4">
-        <v>0</v>
-      </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>196</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU4">
-        <v>0</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>151</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>149</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>151</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EC4">
-        <v>0</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>199</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>199</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>202</v>
-      </c>
       <c r="EG4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EH4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="EK4">
         <v>0</v>
@@ -2690,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2705,384 +2771,3239 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U5" t="s">
+        <v>169</v>
+      </c>
+      <c r="V5" t="s">
+        <v>171</v>
+      </c>
+      <c r="W5" t="s">
+        <v>175</v>
+      </c>
+      <c r="X5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>179</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>200</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>222</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>148</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>188</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>228</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>156</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" t="s">
+        <v>176</v>
+      </c>
+      <c r="X6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>188</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:141">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>150</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U7" t="s">
+        <v>150</v>
+      </c>
+      <c r="V7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>178</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>178</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>178</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>223</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>191</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:141">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>163</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:141">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>151</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>154</v>
-      </c>
-      <c r="U5" t="s">
-        <v>150</v>
-      </c>
-      <c r="V5" t="s">
-        <v>157</v>
-      </c>
-      <c r="W5" t="s">
-        <v>161</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>151</v>
+      </c>
+      <c r="V9" t="s">
+        <v>171</v>
+      </c>
+      <c r="W9" t="s">
+        <v>178</v>
+      </c>
+      <c r="X9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>185</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>215</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>178</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>173</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>173</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:141">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>165</v>
       </c>
-      <c r="Y5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="U10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V11" t="s">
+        <v>171</v>
+      </c>
+      <c r="W11" t="s">
+        <v>180</v>
+      </c>
+      <c r="X11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>189</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>221</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>194</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>196</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>179</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>201</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>202</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF11" t="s">
         <v>178</v>
       </c>
-      <c r="AI5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="DH11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>224</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>152</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>225</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>173</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>189</v>
+      </c>
+      <c r="EC11">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>226</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>226</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>229</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>173</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI11">
+        <v>0</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" t="s">
+        <v>153</v>
+      </c>
+      <c r="V12" t="s">
         <v>171</v>
       </c>
-      <c r="AS5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>165</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>168</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>151</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>194</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>151</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>195</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>161</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>172</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>175</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA5" t="s">
+      <c r="W12" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y12" t="s">
         <v>178</v>
       </c>
-      <c r="DB5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>181</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>173</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>197</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU5">
-        <v>0</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>173</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>151</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>198</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>171</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>172</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>171</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>169</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>203</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>171</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>172</v>
-      </c>
-      <c r="EI5">
-        <v>0</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK5">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>230</v>
+      </c>
+      <c r="EK12">
         <v>0</v>
       </c>
     </row>
@@ -3139,16 +6060,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3182,7 +6103,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3199,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3213,162 +6134,162 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
-        <v>146</v>
-      </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
         <v>143</v>
       </c>
-      <c r="E6" t="s">
-        <v>146</v>
-      </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
         <v>143</v>
       </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" t="s">
-        <v>146</v>
-      </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
         <v>143</v>
       </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3382,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3402,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3422,12 +6343,32 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="248">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,25 +441,28 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
     <t>HURUNGWE</t>
   </si>
   <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
     <t>CHITUNGWIZA</t>
   </si>
   <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>96</t>
+    <t>33</t>
   </si>
   <si>
     <t>187</t>
@@ -471,22 +474,25 @@
     <t>176</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
     <t>236</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Angwa Clinic</t>
   </si>
   <si>
     <t>Chidamoyo Mission Hospital</t>
@@ -507,12 +513,18 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>Hesketh Clinic</t>
+  </si>
+  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
     <t>Kapfunde Clinic</t>
   </si>
   <si>
+    <t>Mahuwe Clinic</t>
+  </si>
+  <si>
     <t>Nyamhunga Sengwe Clinic</t>
   </si>
   <si>
@@ -522,16 +534,19 @@
     <t>Zvipani Rural Health Centre</t>
   </si>
   <si>
-    <t>87</t>
+    <t>24</t>
   </si>
   <si>
     <t>134</t>
   </si>
   <si>
+    <t>submission</t>
+  </si>
+  <si>
     <t>correction</t>
   </si>
   <si>
-    <t>submission</t>
+    <t>3</t>
   </si>
   <si>
     <t>9</t>
@@ -540,7 +555,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>28</t>
+    <t>7</t>
   </si>
   <si>
     <t>91</t>
@@ -552,19 +567,19 @@
     <t>52</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>22</t>
+    <t>6</t>
   </si>
   <si>
     <t>32</t>
@@ -573,7 +588,7 @@
     <t>62</t>
   </si>
   <si>
-    <t>6</t>
+    <t>15</t>
   </si>
   <si>
     <t>8</t>
@@ -582,24 +597,15 @@
     <t>78</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -627,12 +633,6 @@
     <t>51</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
@@ -642,13 +642,16 @@
     <t>19</t>
   </si>
   <si>
+    <t>2025-05-28T10:22:30.010440Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:34.280966Z</t>
   </si>
   <si>
     <t>2025-05-28T09:04:34.666864Z</t>
   </si>
   <si>
-    <t>2025-05-23T09:14:41.249283Z</t>
+    <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
     <t>2025-05-27T16:58:58.988192Z</t>
@@ -660,10 +663,16 @@
     <t>2025-05-28T09:04:33.160767Z</t>
   </si>
   <si>
+    <t>2025-05-21T06:58:05.372240Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:33.771608Z</t>
   </si>
   <si>
     <t>2025-05-28T09:04:36.000353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:10:22.181788Z</t>
   </si>
   <si>
     <t>2025-05-28T09:04:36.419887Z</t>
@@ -1108,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK12"/>
+  <dimension ref="A1:EK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,8 +1585,8 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>154</v>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1586,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1598,154 +1607,157 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U2" t="s">
         <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="W2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM2" t="s">
         <v>185</v>
       </c>
-      <c r="AA2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>181</v>
-      </c>
       <c r="BN2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="BO2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BP2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BQ2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BR2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1757,37 +1769,37 @@
         <v>208</v>
       </c>
       <c r="BW2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="CB2" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CE2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="CF2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="CG2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1840,9 +1852,15 @@
       <c r="CX2">
         <v>0</v>
       </c>
+      <c r="CY2" t="s">
+        <v>156</v>
+      </c>
       <c r="CZ2">
         <v>0</v>
       </c>
+      <c r="DA2" t="s">
+        <v>156</v>
+      </c>
       <c r="DB2">
         <v>0</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -1861,9 +1879,15 @@
       <c r="DH2">
         <v>0</v>
       </c>
+      <c r="DI2" t="s">
+        <v>156</v>
+      </c>
       <c r="DJ2">
         <v>0</v>
       </c>
+      <c r="DK2" t="s">
+        <v>156</v>
+      </c>
       <c r="DL2">
         <v>0</v>
       </c>
@@ -1873,8 +1897,14 @@
       <c r="DP2" t="s">
         <v>156</v>
       </c>
+      <c r="DQ2" t="s">
+        <v>156</v>
+      </c>
       <c r="DR2" t="s">
         <v>156</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>145</v>
       </c>
       <c r="DT2" t="s">
         <v>145</v>
@@ -1891,17 +1921,17 @@
       <c r="DX2" t="s">
         <v>156</v>
       </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="DZ2">
-        <v>0</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
+      <c r="DY2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>156</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1913,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="EG2" t="s">
         <v>156</v>
@@ -1922,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:141">
@@ -1939,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1965,8 +1995,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>155</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1975,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1987,64 +2017,61 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U3" t="s">
         <v>146</v>
       </c>
       <c r="V3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="W3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="X3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>176</v>
       </c>
-      <c r="Y3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
+      <c r="AK3" t="s">
+        <v>156</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AM3" t="s">
-        <v>156</v>
+      <c r="AM3">
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2073,26 +2100,26 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>156</v>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
       </c>
       <c r="AZ3" t="s">
         <v>156</v>
       </c>
-      <c r="BA3">
-        <v>0</v>
+      <c r="BA3" t="s">
+        <v>156</v>
       </c>
       <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BC3" t="s">
-        <v>156</v>
+      <c r="BC3">
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2119,25 +2146,25 @@
         <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BM3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="BN3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="BO3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="BP3" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BQ3" t="s">
         <v>156</v>
       </c>
       <c r="BR3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2149,122 +2176,113 @@
         <v>209</v>
       </c>
       <c r="BW3" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>223</v>
       </c>
       <c r="BZ3">
         <v>0</v>
       </c>
       <c r="CA3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="CB3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="s">
         <v>176</v>
       </c>
-      <c r="CC3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>156</v>
-      </c>
       <c r="DF3">
         <v>0</v>
       </c>
+      <c r="DG3" t="s">
+        <v>156</v>
+      </c>
       <c r="DH3">
         <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
       </c>
-      <c r="DK3" t="s">
-        <v>156</v>
-      </c>
       <c r="DL3">
         <v>0</v>
       </c>
@@ -2274,14 +2292,8 @@
       <c r="DP3" t="s">
         <v>156</v>
       </c>
-      <c r="DQ3" t="s">
-        <v>156</v>
-      </c>
       <c r="DR3" t="s">
         <v>156</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>146</v>
       </c>
       <c r="DT3" t="s">
         <v>146</v>
@@ -2298,17 +2310,17 @@
       <c r="DX3" t="s">
         <v>156</v>
       </c>
-      <c r="DY3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>156</v>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2320,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="EG3" t="s">
         <v>156</v>
@@ -2329,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EK3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2394,157 +2406,157 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U4" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="V4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="X4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Z4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="s">
         <v>178</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>204</v>
-      </c>
       <c r="BM4" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="BN4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="BO4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="BP4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="BQ4" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="BR4" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2556,10 +2568,10 @@
         <v>210</v>
       </c>
       <c r="BW4" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>156</v>
+        <v>222</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2568,25 +2580,25 @@
         <v>0</v>
       </c>
       <c r="CA4" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="CB4" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="CC4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="CD4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>183</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2640,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="CY4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="CZ4">
         <v>0</v>
       </c>
       <c r="DA4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="DB4">
         <v>0</v>
@@ -2666,12 +2678,12 @@
       <c r="DH4">
         <v>0</v>
       </c>
-      <c r="DI4" t="s">
-        <v>156</v>
-      </c>
       <c r="DJ4">
         <v>0</v>
       </c>
+      <c r="DK4" t="s">
+        <v>156</v>
+      </c>
       <c r="DL4">
         <v>0</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>156</v>
       </c>
       <c r="DS4" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="DT4" t="s">
         <v>147</v>
@@ -2727,22 +2739,19 @@
         <v>0</v>
       </c>
       <c r="EF4" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="EG4" t="s">
         <v>156</v>
       </c>
-      <c r="EH4" t="s">
-        <v>156</v>
-      </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK4">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:141">
@@ -2756,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2782,8 +2791,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="M5" t="s">
+        <v>155</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2792,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2804,61 +2813,58 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="V5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="X5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y5" t="s">
         <v>191</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
+      <c r="Z5" t="s">
+        <v>176</v>
       </c>
       <c r="AA5" t="s">
         <v>156</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
+      <c r="AB5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>199</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AH5" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="AI5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>156</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2899,14 +2905,14 @@
       <c r="AY5" t="s">
         <v>156</v>
       </c>
-      <c r="AZ5">
-        <v>0</v>
+      <c r="AZ5" t="s">
+        <v>156</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
+      <c r="BB5" t="s">
+        <v>156</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -2936,22 +2942,22 @@
         <v>0</v>
       </c>
       <c r="BL5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="BM5" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="BN5" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="BO5" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="BP5" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="BQ5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BR5" t="s">
         <v>156</v>
@@ -2966,34 +2972,34 @@
         <v>211</v>
       </c>
       <c r="BW5" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>223</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="CB5" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="CC5" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>176</v>
       </c>
       <c r="CE5" t="s">
         <v>156</v>
       </c>
-      <c r="CF5">
-        <v>0</v>
+      <c r="CF5" t="s">
+        <v>183</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -3001,20 +3007,20 @@
       <c r="CH5">
         <v>0</v>
       </c>
-      <c r="CI5" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>207</v>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
-      <c r="CM5" t="s">
-        <v>179</v>
+      <c r="CM5">
+        <v>0</v>
       </c>
       <c r="CN5">
         <v>0</v>
@@ -3050,29 +3056,35 @@
         <v>0</v>
       </c>
       <c r="CY5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="CZ5">
         <v>0</v>
       </c>
       <c r="DA5" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="DB5">
         <v>0</v>
       </c>
       <c r="DC5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DD5">
         <v>0</v>
       </c>
+      <c r="DE5" t="s">
+        <v>183</v>
+      </c>
       <c r="DF5">
         <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
+      <c r="DI5" t="s">
+        <v>156</v>
+      </c>
       <c r="DJ5">
         <v>0</v>
       </c>
@@ -3085,14 +3097,8 @@
       <c r="DP5" t="s">
         <v>156</v>
       </c>
-      <c r="DQ5" t="s">
-        <v>156</v>
-      </c>
       <c r="DR5" t="s">
         <v>156</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>222</v>
       </c>
       <c r="DT5" t="s">
         <v>148</v>
@@ -3104,46 +3110,43 @@
         <v>156</v>
       </c>
       <c r="DW5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="DX5" t="s">
-        <v>148</v>
-      </c>
-      <c r="DY5" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5" t="s">
         <v>176</v>
       </c>
-      <c r="DZ5" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>188</v>
-      </c>
-      <c r="EC5">
-        <v>0</v>
-      </c>
-      <c r="ED5">
-        <v>0</v>
-      </c>
-      <c r="EE5">
-        <v>0</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>228</v>
-      </c>
       <c r="EG5" t="s">
         <v>156</v>
       </c>
-      <c r="EH5" t="s">
-        <v>156</v>
-      </c>
       <c r="EI5">
         <v>0</v>
       </c>
       <c r="EJ5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EK5">
         <v>0</v>
@@ -3160,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3208,58 +3211,58 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U6" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="V6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="X6" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI6" t="s">
         <v>153</v>
       </c>
-      <c r="Y6" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>183</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3303,8 +3306,8 @@
       <c r="AY6" t="s">
         <v>156</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>156</v>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -3340,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="BL6" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="BM6" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="BN6" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="BO6" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="BP6" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BQ6" t="s">
         <v>156</v>
@@ -3370,10 +3373,10 @@
         <v>212</v>
       </c>
       <c r="BW6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>156</v>
+        <v>222</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -3382,98 +3385,95 @@
         <v>0</v>
       </c>
       <c r="CA6" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="CB6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>200</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>202</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="s">
         <v>153</v>
       </c>
-      <c r="CC6" t="s">
-        <v>188</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>173</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ6">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB6">
-        <v>0</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>156</v>
-      </c>
       <c r="DD6">
         <v>0</v>
       </c>
-      <c r="DE6" t="s">
-        <v>156</v>
-      </c>
       <c r="DF6">
         <v>0</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>156</v>
       </c>
       <c r="DS6" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="DT6" t="s">
         <v>149</v>
@@ -3511,13 +3511,13 @@
         <v>156</v>
       </c>
       <c r="DW6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX6" t="s">
         <v>149</v>
       </c>
-      <c r="DX6" t="s">
-        <v>156</v>
-      </c>
       <c r="DY6" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="DZ6" t="s">
         <v>156</v>
@@ -3526,7 +3526,7 @@
         <v>156</v>
       </c>
       <c r="EB6" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3538,19 +3538,22 @@
         <v>0</v>
       </c>
       <c r="EF6" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="EG6" t="s">
         <v>156</v>
       </c>
+      <c r="EH6" t="s">
+        <v>156</v>
+      </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:141">
@@ -3564,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3612,29 +3615,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U7" t="s">
         <v>150</v>
       </c>
       <c r="V7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="X7" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="Y7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="Z7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA7" t="s">
         <v>178</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>0</v>
       </c>
@@ -3651,112 +3654,112 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO7" t="s">
         <v>178</v>
       </c>
-      <c r="AH7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>192</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>195</v>
-      </c>
       <c r="BP7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="BQ7" t="s">
         <v>156</v>
@@ -3774,10 +3777,10 @@
         <v>213</v>
       </c>
       <c r="BW7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>156</v>
+        <v>222</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -3786,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="CB7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="CC7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="CD7" t="s">
-        <v>156</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>156</v>
+        <v>178</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
@@ -3809,20 +3812,20 @@
       <c r="CH7">
         <v>0</v>
       </c>
-      <c r="CI7" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>192</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>195</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>178</v>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
       </c>
       <c r="CN7">
         <v>0</v>
@@ -3858,32 +3861,29 @@
         <v>0</v>
       </c>
       <c r="CY7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="CZ7">
         <v>0</v>
       </c>
       <c r="DA7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="DB7">
         <v>0</v>
       </c>
       <c r="DC7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="DD7">
         <v>0</v>
       </c>
       <c r="DE7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="DF7">
         <v>0</v>
       </c>
-      <c r="DG7" t="s">
-        <v>156</v>
-      </c>
       <c r="DH7">
         <v>0</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>156</v>
       </c>
       <c r="DS7" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="DT7" t="s">
         <v>150</v>
@@ -3918,10 +3918,10 @@
         <v>156</v>
       </c>
       <c r="DW7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="DX7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="DY7" t="s">
         <v>156</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="EF7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="EG7" t="s">
         <v>156</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="EJ7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EK7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:141">
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3985,8 +3985,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>151</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4019,28 +4019,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>163</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="U8" t="s">
+        <v>151</v>
       </c>
       <c r="V8" t="s">
-        <v>171</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="W8" t="s">
+        <v>182</v>
+      </c>
+      <c r="X8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>176</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -4057,20 +4057,20 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
+      <c r="AG8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>156</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -4105,20 +4105,20 @@
       <c r="AV8">
         <v>0</v>
       </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
+      <c r="AW8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>156</v>
       </c>
       <c r="BB8">
         <v>0</v>
@@ -4151,19 +4151,19 @@
         <v>0</v>
       </c>
       <c r="BL8" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="BM8" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="BN8" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="BO8" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="BP8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="BQ8" t="s">
         <v>156</v>
@@ -4181,7 +4181,7 @@
         <v>214</v>
       </c>
       <c r="BW8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BX8">
         <v>0</v>
@@ -4192,20 +4192,20 @@
       <c r="BZ8">
         <v>0</v>
       </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
+      <c r="CA8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>156</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -4216,20 +4216,20 @@
       <c r="CH8">
         <v>0</v>
       </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
+      <c r="CI8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>195</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>176</v>
       </c>
       <c r="CN8">
         <v>0</v>
@@ -4264,95 +4264,83 @@
       <c r="CX8">
         <v>0</v>
       </c>
-      <c r="CY8">
-        <v>0</v>
+      <c r="CY8" t="s">
+        <v>176</v>
       </c>
       <c r="CZ8">
         <v>0</v>
       </c>
-      <c r="DA8">
-        <v>0</v>
+      <c r="DA8" t="s">
+        <v>176</v>
       </c>
       <c r="DB8">
         <v>0</v>
       </c>
-      <c r="DC8">
-        <v>0</v>
+      <c r="DC8" t="s">
+        <v>176</v>
       </c>
       <c r="DD8">
         <v>0</v>
       </c>
-      <c r="DE8">
-        <v>0</v>
+      <c r="DE8" t="s">
+        <v>178</v>
       </c>
       <c r="DF8">
         <v>0</v>
       </c>
-      <c r="DG8">
-        <v>0</v>
+      <c r="DG8" t="s">
+        <v>156</v>
       </c>
       <c r="DH8">
         <v>0</v>
       </c>
-      <c r="DI8">
-        <v>0</v>
-      </c>
       <c r="DJ8">
         <v>0</v>
       </c>
-      <c r="DK8">
-        <v>0</v>
-      </c>
       <c r="DL8">
         <v>0</v>
       </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
       <c r="DO8">
         <v>0</v>
       </c>
-      <c r="DP8">
-        <v>0</v>
-      </c>
-      <c r="DQ8">
-        <v>0</v>
-      </c>
-      <c r="DR8">
-        <v>0</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
+      <c r="DP8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>226</v>
       </c>
       <c r="DT8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
-      <c r="DV8">
-        <v>0</v>
-      </c>
-      <c r="DW8">
-        <v>0</v>
-      </c>
-      <c r="DX8">
-        <v>0</v>
-      </c>
-      <c r="DY8">
-        <v>0</v>
-      </c>
-      <c r="DZ8">
-        <v>0</v>
-      </c>
-      <c r="EA8">
-        <v>0</v>
-      </c>
-      <c r="EB8">
-        <v>0</v>
+      <c r="DV8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>156</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4363,23 +4351,20 @@
       <c r="EE8">
         <v>0</v>
       </c>
-      <c r="EF8">
-        <v>0</v>
-      </c>
-      <c r="EG8">
-        <v>0</v>
-      </c>
-      <c r="EH8">
-        <v>0</v>
+      <c r="EF8" t="s">
+        <v>194</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>156</v>
       </c>
       <c r="EI8">
         <v>0</v>
       </c>
       <c r="EJ8" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK8">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:141">
@@ -4393,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4408,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4441,31 +4426,31 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W9" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="X9" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>173</v>
+        <v>190</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4476,26 +4461,26 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
+      <c r="AF9" t="s">
+        <v>156</v>
       </c>
       <c r="AG9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AH9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>156</v>
+        <v>190</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -4527,23 +4512,23 @@
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AW9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>156</v>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -4573,22 +4558,22 @@
         <v>0</v>
       </c>
       <c r="BL9" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="BM9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="BN9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="BO9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="BP9" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="BQ9" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="BR9" t="s">
         <v>156</v>
@@ -4603,7 +4588,7 @@
         <v>215</v>
       </c>
       <c r="BW9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BX9" t="s">
         <v>156</v>
@@ -4615,158 +4600,140 @@
         <v>0</v>
       </c>
       <c r="CA9" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>145</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>190</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>152</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>152</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>185</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="EB9" t="s">
         <v>178</v>
       </c>
-      <c r="CB9" t="s">
-        <v>185</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>173</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>173</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>173</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>0</v>
-      </c>
-      <c r="CX9">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ9">
-        <v>0</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB9">
-        <v>0</v>
-      </c>
-      <c r="DC9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DD9">
-        <v>0</v>
-      </c>
-      <c r="DE9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DF9">
-        <v>0</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DH9">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ9">
-        <v>0</v>
-      </c>
-      <c r="DL9">
-        <v>0</v>
-      </c>
-      <c r="DO9">
-        <v>0</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>151</v>
-      </c>
-      <c r="DU9">
-        <v>0</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>151</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>156</v>
-      </c>
       <c r="EC9">
         <v>0</v>
       </c>
@@ -4777,19 +4744,22 @@
         <v>0</v>
       </c>
       <c r="EF9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="EG9" t="s">
         <v>156</v>
       </c>
+      <c r="EH9" t="s">
+        <v>156</v>
+      </c>
       <c r="EI9">
         <v>0</v>
       </c>
       <c r="EJ9" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:141">
@@ -4803,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4817,8 +4787,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>151</v>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4851,25 +4821,25 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
-      </c>
-      <c r="U10" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W10" t="s">
-        <v>179</v>
-      </c>
-      <c r="X10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4889,17 +4859,17 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>156</v>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -4937,17 +4907,17 @@
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AW10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>156</v>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -4983,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="BM10" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="BN10" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="BO10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="BP10" t="s">
         <v>156</v>
@@ -5013,10 +4983,10 @@
         <v>216</v>
       </c>
       <c r="BW10" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>156</v>
+        <v>222</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -5024,17 +4994,17 @@
       <c r="BZ10">
         <v>0</v>
       </c>
-      <c r="CA10" t="s">
-        <v>179</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>173</v>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
       </c>
       <c r="CE10">
         <v>0</v>
@@ -5096,80 +5066,95 @@
       <c r="CX10">
         <v>0</v>
       </c>
-      <c r="CY10" t="s">
-        <v>156</v>
+      <c r="CY10">
+        <v>0</v>
       </c>
       <c r="CZ10">
         <v>0</v>
       </c>
-      <c r="DA10" t="s">
-        <v>156</v>
+      <c r="DA10">
+        <v>0</v>
       </c>
       <c r="DB10">
         <v>0</v>
       </c>
-      <c r="DC10" t="s">
-        <v>156</v>
+      <c r="DC10">
+        <v>0</v>
       </c>
       <c r="DD10">
         <v>0</v>
       </c>
-      <c r="DE10" t="s">
-        <v>156</v>
+      <c r="DE10">
+        <v>0</v>
       </c>
       <c r="DF10">
         <v>0</v>
       </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
       <c r="DH10">
         <v>0</v>
       </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
       <c r="DJ10">
         <v>0</v>
       </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
       <c r="DL10">
         <v>0</v>
       </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
       <c r="DO10">
         <v>0</v>
       </c>
-      <c r="DP10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>151</v>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
-      <c r="DV10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>151</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>156</v>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
       </c>
       <c r="EC10">
         <v>0</v>
@@ -5180,17 +5165,20 @@
       <c r="EE10">
         <v>0</v>
       </c>
-      <c r="EF10" t="s">
-        <v>156</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>156</v>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
       </c>
       <c r="EI10">
         <v>0</v>
       </c>
       <c r="EJ10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EK10">
         <v>0</v>
@@ -5207,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5222,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5255,31 +5243,31 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="X11" t="s">
         <v>187</v>
       </c>
       <c r="Y11" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="Z11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>178</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -5294,22 +5282,22 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="AH11" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="AI11" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="AJ11" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>156</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -5317,29 +5305,29 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>156</v>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
       </c>
       <c r="AW11" t="s">
         <v>156</v>
@@ -5353,11 +5341,11 @@
       <c r="AZ11" t="s">
         <v>156</v>
       </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
+      <c r="BA11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>156</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -5365,44 +5353,44 @@
       <c r="BD11">
         <v>0</v>
       </c>
-      <c r="BE11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>156</v>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
       </c>
       <c r="BL11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="BM11" t="s">
         <v>187</v>
       </c>
       <c r="BN11" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="BO11" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="BP11" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BQ11" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="BR11" t="s">
         <v>156</v>
@@ -5417,10 +5405,10 @@
         <v>217</v>
       </c>
       <c r="BW11" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>189</v>
+        <v>222</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -5429,22 +5417,22 @@
         <v>0</v>
       </c>
       <c r="CA11" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="CB11" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="CC11" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="CD11" t="s">
-        <v>156</v>
-      </c>
-      <c r="CE11">
-        <v>0</v>
-      </c>
-      <c r="CF11">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>178</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5452,17 +5440,17 @@
       <c r="CH11">
         <v>0</v>
       </c>
-      <c r="CI11" t="s">
-        <v>221</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>180</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>194</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>196</v>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
       </c>
       <c r="CM11">
         <v>0</v>
@@ -5476,11 +5464,11 @@
       <c r="CP11">
         <v>0</v>
       </c>
-      <c r="CQ11" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>179</v>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5501,40 +5489,46 @@
         <v>0</v>
       </c>
       <c r="CY11" t="s">
-        <v>199</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>156</v>
+        <v>156</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
       </c>
       <c r="DA11" t="s">
-        <v>201</v>
-      </c>
-      <c r="DB11" t="s">
-        <v>156</v>
+        <v>156</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
       </c>
       <c r="DC11" t="s">
-        <v>202</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>156</v>
+        <v>156</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
       </c>
       <c r="DE11" t="s">
-        <v>203</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>178</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>156</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>156</v>
+        <v>156</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
       </c>
       <c r="DP11" t="s">
         <v>156</v>
@@ -5543,64 +5537,61 @@
         <v>156</v>
       </c>
       <c r="DR11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="DS11" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="DT11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DV11" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="DW11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="DX11" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="DY11" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="DZ11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="EA11" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="EB11" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="EC11">
         <v>0</v>
       </c>
-      <c r="ED11" t="s">
-        <v>226</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>226</v>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
       </c>
       <c r="EF11" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="EG11" t="s">
-        <v>173</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="EI11">
         <v>0</v>
       </c>
       <c r="EJ11" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK11">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:141">
@@ -5629,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5662,31 +5653,31 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="V12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="W12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="X12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Y12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>183</v>
       </c>
       <c r="AA12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>183</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -5709,14 +5700,14 @@
       <c r="AI12" t="s">
         <v>156</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
+      <c r="AJ12" t="s">
+        <v>156</v>
       </c>
       <c r="AK12" t="s">
         <v>156</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
+      <c r="AL12" t="s">
+        <v>156</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5757,14 +5748,14 @@
       <c r="AY12" t="s">
         <v>156</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
+      <c r="AZ12" t="s">
+        <v>156</v>
       </c>
       <c r="BA12" t="s">
         <v>156</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
+      <c r="BB12" t="s">
+        <v>156</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5794,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="BL12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BM12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BN12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BO12" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BP12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BQ12" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="BR12" t="s">
         <v>156</v>
@@ -5824,186 +5815,1407 @@
         <v>218</v>
       </c>
       <c r="BW12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>233</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>169</v>
+      </c>
+      <c r="U13" t="s">
+        <v>153</v>
+      </c>
+      <c r="V13" t="s">
+        <v>174</v>
+      </c>
+      <c r="W13" t="s">
+        <v>183</v>
+      </c>
+      <c r="X13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
         <v>219</v>
       </c>
-      <c r="BX12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="s">
+      <c r="BW13" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI13">
+        <v>0</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>233</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:141">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" t="s">
+        <v>154</v>
+      </c>
+      <c r="V14" t="s">
+        <v>174</v>
+      </c>
+      <c r="W14" t="s">
+        <v>184</v>
+      </c>
+      <c r="X14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>156</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>156</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>196</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>178</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>183</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>201</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>203</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>204</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>176</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>183</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>227</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>154</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>176</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>156</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>228</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>178</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>183</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>193</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>229</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>229</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>232</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>178</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>183</v>
+      </c>
+      <c r="EI14">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>233</v>
+      </c>
+      <c r="EK14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:141">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>171</v>
+      </c>
+      <c r="U15" t="s">
+        <v>145</v>
+      </c>
+      <c r="V15" t="s">
+        <v>174</v>
+      </c>
+      <c r="W15" t="s">
+        <v>183</v>
+      </c>
+      <c r="X15" t="s">
         <v>179</v>
       </c>
-      <c r="CB12" t="s">
-        <v>188</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12" t="s">
+      <c r="Y15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM15" t="s">
         <v>179</v>
       </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB12">
-        <v>0</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DD12">
-        <v>0</v>
-      </c>
-      <c r="DF12">
-        <v>0</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DJ12">
-        <v>0</v>
-      </c>
-      <c r="DL12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>153</v>
-      </c>
-      <c r="DT12" t="s">
-        <v>153</v>
-      </c>
-      <c r="DU12">
-        <v>0</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>153</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EC12">
-        <v>0</v>
-      </c>
-      <c r="ED12">
-        <v>0</v>
-      </c>
-      <c r="EE12">
-        <v>0</v>
-      </c>
-      <c r="EF12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>156</v>
-      </c>
-      <c r="EI12">
-        <v>0</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>230</v>
-      </c>
-      <c r="EK12">
+      <c r="BN15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>156</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>156</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>221</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>179</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>145</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>156</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>156</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>156</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>233</v>
+      </c>
+      <c r="EK15">
         <v>0</v>
       </c>
     </row>
@@ -6060,16 +7272,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6120,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -6134,162 +7346,162 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
         <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
         <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
         <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
         <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
         <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6323,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6343,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6363,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="251">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -474,12 +474,15 @@
     <t>176</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
@@ -513,9 +516,6 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
-    <t>Hesketh Clinic</t>
-  </si>
-  <si>
     <t>Hurungwe RH</t>
   </si>
   <si>
@@ -525,6 +525,12 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Mushumbi RHC</t>
+  </si>
+  <si>
+    <t>Nyambudzi Clinic</t>
+  </si>
+  <si>
     <t>Nyamhunga Sengwe Clinic</t>
   </si>
   <si>
@@ -555,9 +561,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -567,6 +570,9 @@
     <t>52</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -588,9 +594,6 @@
     <t>62</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -663,9 +666,6 @@
     <t>2025-05-28T09:04:33.160767Z</t>
   </si>
   <si>
-    <t>2025-05-21T06:58:05.372240Z</t>
-  </si>
-  <si>
     <t>2025-05-28T09:04:33.771608Z</t>
   </si>
   <si>
@@ -675,6 +675,12 @@
     <t>2025-05-28T10:10:22.181788Z</t>
   </si>
   <si>
+    <t>2025-05-28T10:40:20.907438Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:42:06.770785Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:36.419887Z</t>
   </si>
   <si>
@@ -697,6 +703,9 @@
   </si>
   <si>
     <t>165</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>21</t>
@@ -1117,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK15"/>
+  <dimension ref="A1:EK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1595,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1607,34 +1616,34 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U2" t="s">
         <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
         <v>185</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1646,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1694,25 +1703,25 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BB2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BC2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1739,25 +1748,25 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO2" t="s">
         <v>185</v>
       </c>
-      <c r="BN2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>183</v>
-      </c>
       <c r="BP2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BQ2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BR2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1766,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BW2" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>157</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1781,25 +1790,25 @@
         <v>0</v>
       </c>
       <c r="CA2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
         <v>185</v>
       </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>183</v>
-      </c>
       <c r="CE2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CF2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CG2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1853,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="CY2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB2">
         <v>0</v>
@@ -1868,25 +1877,25 @@
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DJ2">
         <v>0</v>
       </c>
       <c r="DK2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DL2">
         <v>0</v>
@@ -1895,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS2" t="s">
         <v>145</v>
@@ -1913,25 +1922,25 @@
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW2" t="s">
         <v>145</v>
       </c>
       <c r="DX2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1943,16 +1952,16 @@
         <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EG2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK2">
         <v>0</v>
@@ -1996,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2005,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2017,55 +2026,55 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U3" t="s">
         <v>146</v>
       </c>
       <c r="V3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Y3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AA3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AH3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AJ3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AK3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -2110,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="AZ3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2146,25 +2155,25 @@
         <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BM3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="BN3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BO3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="BP3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BQ3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2173,40 +2182,40 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BW3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>157</v>
       </c>
       <c r="BY3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BZ3">
         <v>0</v>
       </c>
       <c r="CA3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="CB3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CC3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CD3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="CE3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CF3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CG3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2269,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DH3">
         <v>0</v>
@@ -2290,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="DP3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DT3" t="s">
         <v>146</v>
@@ -2302,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="DV3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW3" t="s">
         <v>146</v>
       </c>
       <c r="DX3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY3">
         <v>0</v>
@@ -2332,19 +2341,19 @@
         <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EG3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2394,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2406,25 +2415,25 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U4" t="s">
         <v>147</v>
       </c>
       <c r="V4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W4" t="s">
+        <v>180</v>
+      </c>
+      <c r="X4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" t="s">
         <v>178</v>
       </c>
-      <c r="X4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>176</v>
-      </c>
       <c r="Z4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -2433,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2445,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2463,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -2493,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2511,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="BC4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -2538,25 +2547,25 @@
         <v>0</v>
       </c>
       <c r="BL4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN4" t="s">
         <v>178</v>
       </c>
-      <c r="BM4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>176</v>
-      </c>
       <c r="BO4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BP4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BQ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2565,13 +2574,13 @@
         <v>0</v>
       </c>
       <c r="BV4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BW4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>157</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -2580,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="CA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC4" t="s">
         <v>178</v>
       </c>
-      <c r="CB4" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>176</v>
-      </c>
       <c r="CD4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -2598,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2652,25 +2661,25 @@
         <v>0</v>
       </c>
       <c r="CY4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CZ4">
         <v>0</v>
       </c>
       <c r="DA4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB4">
         <v>0</v>
       </c>
       <c r="DC4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD4">
         <v>0</v>
       </c>
       <c r="DE4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF4">
         <v>0</v>
@@ -2682,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="DK4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DL4">
         <v>0</v>
@@ -2691,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="DP4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS4" t="s">
         <v>147</v>
@@ -2709,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW4" t="s">
         <v>147</v>
       </c>
       <c r="DX4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC4">
         <v>0</v>
@@ -2739,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="EF4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EG4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:141">
@@ -2792,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2813,193 +2822,193 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="V5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W5" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO5" t="s">
         <v>178</v>
       </c>
-      <c r="AH5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>191</v>
-      </c>
-      <c r="BN5" t="s">
+      <c r="BP5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="s">
         <v>194</v>
       </c>
-      <c r="BO5" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>223</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>193</v>
-      </c>
       <c r="CB5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CC5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CD5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CE5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CF5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -3056,25 +3065,25 @@
         <v>0</v>
       </c>
       <c r="CY5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CZ5">
         <v>0</v>
       </c>
       <c r="DA5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB5">
         <v>0</v>
       </c>
       <c r="DC5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD5">
         <v>0</v>
       </c>
       <c r="DE5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DF5">
         <v>0</v>
@@ -3083,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="DI5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DJ5">
         <v>0</v>
@@ -3095,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="DP5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DT5" t="s">
         <v>148</v>
@@ -3107,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="DV5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW5" t="s">
         <v>148</v>
       </c>
       <c r="DX5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY5">
         <v>0</v>
@@ -3137,16 +3146,16 @@
         <v>0</v>
       </c>
       <c r="EF5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="EG5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI5">
         <v>0</v>
       </c>
       <c r="EJ5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK5">
         <v>0</v>
@@ -3199,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3211,28 +3220,28 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="V6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -3250,19 +3259,19 @@
         <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -3298,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -3343,85 +3352,85 @@
         <v>0</v>
       </c>
       <c r="BL6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BM6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>213</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="s">
         <v>206</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="CJ6" t="s">
         <v>207</v>
       </c>
-      <c r="BO6" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>156</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>156</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>206</v>
-      </c>
       <c r="CK6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -3457,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="CY6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CZ6">
         <v>0</v>
       </c>
       <c r="DA6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DB6">
         <v>0</v>
       </c>
       <c r="DC6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DD6">
         <v>0</v>
@@ -3490,16 +3499,16 @@
         <v>0</v>
       </c>
       <c r="DP6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="DT6" t="s">
         <v>149</v>
@@ -3508,25 +3517,25 @@
         <v>0</v>
       </c>
       <c r="DV6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DX6" t="s">
         <v>149</v>
       </c>
       <c r="DY6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DZ6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB6" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3538,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="EF6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="EG6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EH6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK6">
         <v>0</v>
@@ -3603,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3615,25 +3624,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
         <v>150</v>
       </c>
       <c r="V7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X7" t="s">
         <v>145</v>
       </c>
       <c r="Y7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="Z7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3654,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AH7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -3702,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="AW7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -3747,25 +3756,25 @@
         <v>0</v>
       </c>
       <c r="BL7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BM7" t="s">
         <v>145</v>
       </c>
       <c r="BN7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="BO7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BP7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BQ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT7">
         <v>0</v>
@@ -3774,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="BV7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BW7" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>157</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -3789,16 +3798,16 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CB7" t="s">
         <v>145</v>
       </c>
       <c r="CC7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="CD7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -3861,25 +3870,25 @@
         <v>0</v>
       </c>
       <c r="CY7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CZ7">
         <v>0</v>
       </c>
       <c r="DA7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB7">
         <v>0</v>
       </c>
       <c r="DC7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD7">
         <v>0</v>
       </c>
       <c r="DE7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF7">
         <v>0</v>
@@ -3897,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="DP7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS7" t="s">
         <v>150</v>
@@ -3915,25 +3924,25 @@
         <v>0</v>
       </c>
       <c r="DV7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW7" t="s">
         <v>150</v>
       </c>
       <c r="DX7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3945,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="EF7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EG7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI7">
         <v>0</v>
       </c>
       <c r="EJ7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:141">
@@ -4007,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4019,28 +4028,28 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
         <v>151</v>
       </c>
       <c r="V8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Y8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -4058,118 +4067,118 @@
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AH8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AI8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BP8" t="s">
         <v>178</v>
       </c>
-      <c r="AK8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>195</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>176</v>
-      </c>
       <c r="BQ8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT8">
         <v>0</v>
@@ -4178,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BW8" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>157</v>
       </c>
       <c r="BY8">
         <v>0</v>
@@ -4193,19 +4202,19 @@
         <v>0</v>
       </c>
       <c r="CA8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CB8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CC8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CD8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CE8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CF8">
         <v>0</v>
@@ -4217,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="CI8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CJ8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="CK8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CL8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CM8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CN8">
         <v>0</v>
@@ -4265,31 +4274,31 @@
         <v>0</v>
       </c>
       <c r="CY8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="CZ8">
         <v>0</v>
       </c>
       <c r="DA8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DB8">
         <v>0</v>
       </c>
       <c r="DC8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DD8">
         <v>0</v>
       </c>
       <c r="DE8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="DF8">
         <v>0</v>
       </c>
       <c r="DG8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DH8">
         <v>0</v>
@@ -4304,16 +4313,16 @@
         <v>0</v>
       </c>
       <c r="DP8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="DT8" t="s">
         <v>151</v>
@@ -4322,25 +4331,25 @@
         <v>0</v>
       </c>
       <c r="DV8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DX8" t="s">
         <v>151</v>
       </c>
       <c r="DY8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4352,19 +4361,19 @@
         <v>0</v>
       </c>
       <c r="EF8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="EG8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI8">
         <v>0</v>
       </c>
       <c r="EJ8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:141">
@@ -4392,8 +4401,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>152</v>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4414,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4426,19 +4435,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
-      </c>
-      <c r="U9" t="s">
-        <v>152</v>
+        <v>166</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>174</v>
-      </c>
-      <c r="W9" t="s">
-        <v>145</v>
-      </c>
-      <c r="X9" t="s">
-        <v>190</v>
+        <v>176</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -4461,14 +4470,14 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>190</v>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4558,25 +4567,25 @@
         <v>0</v>
       </c>
       <c r="BL9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="BM9" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="BN9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BO9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BP9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BQ9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -4585,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="BV9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BW9" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>156</v>
+        <v>224</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
       </c>
       <c r="BY9">
         <v>0</v>
@@ -4599,11 +4608,11 @@
       <c r="BZ9">
         <v>0</v>
       </c>
-      <c r="CA9" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>156</v>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
       </c>
       <c r="CC9">
         <v>0</v>
@@ -4623,11 +4632,11 @@
       <c r="CH9">
         <v>0</v>
       </c>
-      <c r="CI9" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>190</v>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -4671,68 +4680,95 @@
       <c r="CX9">
         <v>0</v>
       </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
       <c r="CZ9">
         <v>0</v>
       </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
       <c r="DB9">
         <v>0</v>
       </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
       <c r="DD9">
         <v>0</v>
       </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
       <c r="DF9">
         <v>0</v>
       </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
       <c r="DH9">
         <v>0</v>
       </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
       <c r="DJ9">
         <v>0</v>
       </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
       <c r="DL9">
         <v>0</v>
       </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
       <c r="DO9">
         <v>0</v>
       </c>
-      <c r="DP9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>156</v>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
-      <c r="DV9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>156</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>152</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>185</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>187</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>178</v>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
       </c>
       <c r="EC9">
         <v>0</v>
@@ -4743,20 +4779,20 @@
       <c r="EE9">
         <v>0</v>
       </c>
-      <c r="EF9" t="s">
-        <v>152</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>156</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>156</v>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
       </c>
       <c r="EI9">
         <v>0</v>
       </c>
       <c r="EJ9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK9">
         <v>0</v>
@@ -4787,8 +4823,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>152</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4809,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -4821,31 +4857,31 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>166</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="U10" t="s">
+        <v>152</v>
       </c>
       <c r="V10" t="s">
-        <v>174</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="W10" t="s">
+        <v>178</v>
+      </c>
+      <c r="X10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>180</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -4859,23 +4895,23 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AG10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>157</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -4907,23 +4943,23 @@
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
+      <c r="AW10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>157</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -4953,25 +4989,25 @@
         <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="BM10" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="BN10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="BO10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="BP10" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="BQ10" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="BR10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -4980,13 +5016,13 @@
         <v>0</v>
       </c>
       <c r="BV10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BW10" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>157</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -4994,23 +5030,23 @@
       <c r="BZ10">
         <v>0</v>
       </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10">
-        <v>0</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
+      <c r="CA10" t="s">
+        <v>178</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>189</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>180</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -5066,95 +5102,86 @@
       <c r="CX10">
         <v>0</v>
       </c>
-      <c r="CY10">
-        <v>0</v>
+      <c r="CY10" t="s">
+        <v>157</v>
       </c>
       <c r="CZ10">
         <v>0</v>
       </c>
-      <c r="DA10">
-        <v>0</v>
+      <c r="DA10" t="s">
+        <v>157</v>
       </c>
       <c r="DB10">
         <v>0</v>
       </c>
-      <c r="DC10">
-        <v>0</v>
+      <c r="DC10" t="s">
+        <v>157</v>
       </c>
       <c r="DD10">
         <v>0</v>
       </c>
-      <c r="DE10">
-        <v>0</v>
+      <c r="DE10" t="s">
+        <v>157</v>
       </c>
       <c r="DF10">
         <v>0</v>
       </c>
-      <c r="DG10">
-        <v>0</v>
+      <c r="DG10" t="s">
+        <v>157</v>
       </c>
       <c r="DH10">
         <v>0</v>
       </c>
-      <c r="DI10">
-        <v>0</v>
+      <c r="DI10" t="s">
+        <v>157</v>
       </c>
       <c r="DJ10">
         <v>0</v>
       </c>
-      <c r="DK10">
-        <v>0</v>
-      </c>
       <c r="DL10">
         <v>0</v>
       </c>
-      <c r="DM10">
-        <v>0</v>
-      </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
       <c r="DO10">
         <v>0</v>
       </c>
-      <c r="DP10">
-        <v>0</v>
-      </c>
-      <c r="DQ10">
-        <v>0</v>
-      </c>
-      <c r="DR10">
-        <v>0</v>
-      </c>
-      <c r="DS10">
-        <v>0</v>
+      <c r="DP10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>152</v>
       </c>
       <c r="DT10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="DU10">
         <v>0</v>
       </c>
-      <c r="DV10">
-        <v>0</v>
-      </c>
-      <c r="DW10">
-        <v>0</v>
-      </c>
-      <c r="DX10">
-        <v>0</v>
-      </c>
-      <c r="DY10">
-        <v>0</v>
-      </c>
-      <c r="DZ10">
-        <v>0</v>
-      </c>
-      <c r="EA10">
-        <v>0</v>
-      </c>
-      <c r="EB10">
-        <v>0</v>
+      <c r="DV10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>152</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>157</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>157</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>157</v>
       </c>
       <c r="EC10">
         <v>0</v>
@@ -5165,23 +5192,20 @@
       <c r="EE10">
         <v>0</v>
       </c>
-      <c r="EF10">
-        <v>0</v>
-      </c>
-      <c r="EG10">
-        <v>0</v>
-      </c>
-      <c r="EH10">
-        <v>0</v>
+      <c r="EF10" t="s">
+        <v>157</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>157</v>
       </c>
       <c r="EI10">
         <v>0</v>
       </c>
       <c r="EJ10" t="s">
-        <v>233</v>
-      </c>
-      <c r="EK10">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:141">
@@ -5195,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5210,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5231,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -5243,196 +5267,196 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="V11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X11" t="s">
         <v>187</v>
       </c>
       <c r="Y11" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="s">
         <v>178</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>176</v>
       </c>
       <c r="BM11" t="s">
         <v>187</v>
       </c>
       <c r="BN11" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>218</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="s">
         <v>178</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>178</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>217</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>176</v>
       </c>
       <c r="CB11" t="s">
         <v>187</v>
       </c>
       <c r="CC11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="CD11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="CE11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CF11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5489,37 +5513,37 @@
         <v>0</v>
       </c>
       <c r="CY11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CZ11">
         <v>0</v>
       </c>
       <c r="DA11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB11">
         <v>0</v>
       </c>
       <c r="DC11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD11">
         <v>0</v>
       </c>
       <c r="DE11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF11">
         <v>0</v>
       </c>
       <c r="DG11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DH11">
         <v>0</v>
       </c>
       <c r="DI11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DJ11">
         <v>0</v>
@@ -5531,43 +5555,43 @@
         <v>0</v>
       </c>
       <c r="DP11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="DT11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
       <c r="DV11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="DX11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC11">
         <v>0</v>
@@ -5579,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="EF11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EG11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI11">
         <v>0</v>
       </c>
       <c r="EJ11" t="s">
-        <v>233</v>
-      </c>
-      <c r="EK11" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:141">
@@ -5620,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5641,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5653,61 +5677,61 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="V12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="X12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
         <v>185</v>
       </c>
-      <c r="Y12" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>156</v>
-      </c>
       <c r="AH12" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AI12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AJ12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5740,22 +5764,22 @@
         <v>0</v>
       </c>
       <c r="AW12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
       </c>
       <c r="BB12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5785,151 +5809,148 @@
         <v>0</v>
       </c>
       <c r="BL12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="BM12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>180</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="s">
         <v>185</v>
       </c>
-      <c r="BN12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>218</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CB12" t="s">
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="s">
         <v>185</v>
       </c>
-      <c r="CC12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>183</v>
-      </c>
-      <c r="CG12">
-        <v>0</v>
-      </c>
-      <c r="CH12">
-        <v>0</v>
-      </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CP12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ12">
-        <v>0</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>156</v>
-      </c>
       <c r="DB12">
         <v>0</v>
       </c>
       <c r="DC12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD12">
         <v>0</v>
       </c>
       <c r="DE12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DF12">
         <v>0</v>
       </c>
-      <c r="DG12" t="s">
-        <v>156</v>
-      </c>
       <c r="DH12">
         <v>0</v>
       </c>
       <c r="DI12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DJ12">
         <v>0</v>
@@ -5941,43 +5962,43 @@
         <v>0</v>
       </c>
       <c r="DP12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS12" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="DT12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DV12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="DX12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC12">
         <v>0</v>
@@ -5989,16 +6010,16 @@
         <v>0</v>
       </c>
       <c r="EF12" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="EG12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI12">
         <v>0</v>
       </c>
       <c r="EJ12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK12">
         <v>0</v>
@@ -6015,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6030,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6051,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -6063,191 +6084,191 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X13" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="Y13" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="s">
         <v>185</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="BM13" t="s">
         <v>178</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>191</v>
-      </c>
       <c r="BN13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="s">
         <v>185</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="CB13" t="s">
         <v>178</v>
       </c>
-      <c r="BP13" t="s">
-        <v>156</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>156</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>219</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>191</v>
-      </c>
       <c r="CC13" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD13" t="s">
         <v>178</v>
       </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
       <c r="CE13">
         <v>0</v>
       </c>
@@ -6309,26 +6330,23 @@
         <v>0</v>
       </c>
       <c r="CY13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CZ13">
         <v>0</v>
       </c>
       <c r="DA13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DB13">
         <v>0</v>
       </c>
       <c r="DC13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DD13">
         <v>0</v>
       </c>
-      <c r="DE13" t="s">
-        <v>156</v>
-      </c>
       <c r="DF13">
         <v>0</v>
       </c>
@@ -6345,43 +6363,43 @@
         <v>0</v>
       </c>
       <c r="DP13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DS13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DT13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DV13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DW13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DX13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DY13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DZ13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EA13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EB13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EC13">
         <v>0</v>
@@ -6393,16 +6411,16 @@
         <v>0</v>
       </c>
       <c r="EF13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EG13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EI13">
         <v>0</v>
       </c>
       <c r="EJ13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK13">
         <v>0</v>
@@ -6419,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -6434,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -6455,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -6467,25 +6485,25 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X14" t="s">
         <v>192</v>
       </c>
       <c r="Y14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -6506,16 +6524,16 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="AI14" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="AJ14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -6529,41 +6547,41 @@
       <c r="AN14">
         <v>0</v>
       </c>
-      <c r="AO14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>156</v>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
       </c>
       <c r="AW14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AY14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AZ14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -6577,47 +6595,47 @@
       <c r="BD14">
         <v>0</v>
       </c>
-      <c r="BE14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>156</v>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>0</v>
       </c>
       <c r="BL14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BM14" t="s">
         <v>192</v>
       </c>
       <c r="BN14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="BO14" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="BP14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BQ14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BT14">
         <v>0</v>
@@ -6626,13 +6644,13 @@
         <v>0</v>
       </c>
       <c r="BV14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BW14" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>157</v>
       </c>
       <c r="BY14">
         <v>0</v>
@@ -6641,16 +6659,16 @@
         <v>0</v>
       </c>
       <c r="CA14" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="CB14" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="CC14" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="CD14" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="CE14">
         <v>0</v>
@@ -6664,17 +6682,17 @@
       <c r="CH14">
         <v>0</v>
       </c>
-      <c r="CI14" t="s">
-        <v>224</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK14" t="s">
-        <v>196</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>198</v>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
       </c>
       <c r="CM14">
         <v>0</v>
@@ -6688,11 +6706,11 @@
       <c r="CP14">
         <v>0</v>
       </c>
-      <c r="CQ14" t="s">
-        <v>178</v>
-      </c>
-      <c r="CR14" t="s">
-        <v>183</v>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
       </c>
       <c r="CS14">
         <v>0</v>
@@ -6713,103 +6731,100 @@
         <v>0</v>
       </c>
       <c r="CY14" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
       </c>
       <c r="DA14" t="s">
-        <v>203</v>
-      </c>
-      <c r="DB14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
       </c>
       <c r="DC14" t="s">
-        <v>204</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="DD14">
+        <v>0</v>
       </c>
       <c r="DE14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF14" t="s">
-        <v>176</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>156</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>156</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
       </c>
       <c r="DP14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DQ14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR14" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="DS14" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="DT14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="DU14">
         <v>0</v>
       </c>
       <c r="DV14" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="DW14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="DX14" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="DY14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="DZ14" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="EA14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="EB14" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="EC14">
         <v>0</v>
       </c>
-      <c r="ED14" t="s">
-        <v>229</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>229</v>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
       </c>
       <c r="EF14" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="EG14" t="s">
-        <v>178</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="EI14">
         <v>0</v>
       </c>
       <c r="EJ14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="EK14">
         <v>0</v>
@@ -6826,396 +6841,803 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>172</v>
+      </c>
+      <c r="U15" t="s">
+        <v>155</v>
+      </c>
+      <c r="V15" t="s">
+        <v>176</v>
+      </c>
+      <c r="W15" t="s">
+        <v>186</v>
+      </c>
+      <c r="X15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>199</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>226</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>180</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>185</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>205</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>178</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>185</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>230</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>231</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>180</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>185</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>180</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>232</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>232</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>235</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>180</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>185</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:141">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>145</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>171</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16" t="s">
         <v>145</v>
       </c>
-      <c r="V15" t="s">
-        <v>174</v>
-      </c>
-      <c r="W15" t="s">
-        <v>183</v>
-      </c>
-      <c r="X15" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="V16" t="s">
         <v>176</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>156</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>156</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>156</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>156</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>221</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>222</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15">
-        <v>0</v>
-      </c>
-      <c r="BZ15">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>179</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD15">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF15">
-        <v>0</v>
-      </c>
-      <c r="CG15">
-        <v>0</v>
-      </c>
-      <c r="CH15">
-        <v>0</v>
-      </c>
-      <c r="CI15">
-        <v>0</v>
-      </c>
-      <c r="CJ15">
-        <v>0</v>
-      </c>
-      <c r="CK15">
-        <v>0</v>
-      </c>
-      <c r="CL15">
-        <v>0</v>
-      </c>
-      <c r="CM15">
-        <v>0</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
-      </c>
-      <c r="CQ15">
-        <v>0</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
-      </c>
-      <c r="CV15">
-        <v>0</v>
-      </c>
-      <c r="CW15">
-        <v>0</v>
-      </c>
-      <c r="CX15">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>156</v>
-      </c>
-      <c r="CZ15">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB15">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DD15">
-        <v>0</v>
-      </c>
-      <c r="DF15">
-        <v>0</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DH15">
-        <v>0</v>
-      </c>
-      <c r="DJ15">
-        <v>0</v>
-      </c>
-      <c r="DL15">
-        <v>0</v>
-      </c>
-      <c r="DO15">
-        <v>0</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS15" t="s">
+      <c r="W16" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>185</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>185</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>223</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>224</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>157</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS16" t="s">
         <v>145</v>
       </c>
-      <c r="DT15" t="s">
+      <c r="DT16" t="s">
         <v>145</v>
       </c>
-      <c r="DU15">
-        <v>0</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DW15" t="s">
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW16" t="s">
         <v>145</v>
       </c>
-      <c r="DX15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>156</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>156</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>156</v>
-      </c>
-      <c r="EC15">
-        <v>0</v>
-      </c>
-      <c r="ED15">
-        <v>0</v>
-      </c>
-      <c r="EE15">
-        <v>0</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>156</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>156</v>
-      </c>
-      <c r="EI15">
-        <v>0</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>233</v>
-      </c>
-      <c r="EK15">
+      <c r="DX16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>157</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>236</v>
+      </c>
+      <c r="EK16">
         <v>0</v>
       </c>
     </row>
@@ -7272,13 +7694,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
         <v>142</v>
@@ -7332,7 +7754,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -7346,162 +7768,162 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
         <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
         <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
         <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
         <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="251">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -672,7 +672,7 @@
     <t>2025-05-28T09:04:36.000353Z</t>
   </si>
   <si>
-    <t>2025-05-28T10:10:22.181788Z</t>
+    <t>2025-05-28T11:04:46.655913Z</t>
   </si>
   <si>
     <t>2025-05-28T10:40:20.907438Z</t>
@@ -5233,8 +5233,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>145</v>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5245,8 +5245,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
+      <c r="M11" t="s">
+        <v>156</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -5269,29 +5269,29 @@
       <c r="T11" t="s">
         <v>168</v>
       </c>
-      <c r="U11" t="s">
-        <v>145</v>
+      <c r="U11">
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>176</v>
-      </c>
-      <c r="W11" t="s">
-        <v>178</v>
-      </c>
-      <c r="X11" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -5305,23 +5305,23 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>157</v>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -5353,23 +5353,23 @@
       <c r="AV11">
         <v>0</v>
       </c>
-      <c r="AW11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>157</v>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -5399,22 +5399,22 @@
         <v>0</v>
       </c>
       <c r="BL11" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="BM11" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="BN11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="BO11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="BP11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="BQ11" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="BR11" t="s">
         <v>157</v>
@@ -5431,8 +5431,8 @@
       <c r="BW11" t="s">
         <v>224</v>
       </c>
-      <c r="BX11" t="s">
-        <v>157</v>
+      <c r="BX11">
+        <v>0</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -5440,23 +5440,23 @@
       <c r="BZ11">
         <v>0</v>
       </c>
-      <c r="CA11" t="s">
-        <v>178</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>187</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>185</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>185</v>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
       </c>
       <c r="CG11">
         <v>0</v>
@@ -5512,86 +5512,95 @@
       <c r="CX11">
         <v>0</v>
       </c>
-      <c r="CY11" t="s">
-        <v>157</v>
+      <c r="CY11">
+        <v>0</v>
       </c>
       <c r="CZ11">
         <v>0</v>
       </c>
-      <c r="DA11" t="s">
-        <v>157</v>
+      <c r="DA11">
+        <v>0</v>
       </c>
       <c r="DB11">
         <v>0</v>
       </c>
-      <c r="DC11" t="s">
-        <v>157</v>
+      <c r="DC11">
+        <v>0</v>
       </c>
       <c r="DD11">
         <v>0</v>
       </c>
-      <c r="DE11" t="s">
-        <v>157</v>
+      <c r="DE11">
+        <v>0</v>
       </c>
       <c r="DF11">
         <v>0</v>
       </c>
-      <c r="DG11" t="s">
-        <v>157</v>
+      <c r="DG11">
+        <v>0</v>
       </c>
       <c r="DH11">
         <v>0</v>
       </c>
-      <c r="DI11" t="s">
-        <v>157</v>
+      <c r="DI11">
+        <v>0</v>
       </c>
       <c r="DJ11">
         <v>0</v>
       </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
       <c r="DL11">
         <v>0</v>
       </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
       <c r="DO11">
         <v>0</v>
       </c>
-      <c r="DP11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>145</v>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
-      <c r="DV11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>145</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>157</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>157</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>157</v>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="EB11">
+        <v>0</v>
       </c>
       <c r="EC11">
         <v>0</v>
@@ -5602,11 +5611,14 @@
       <c r="EE11">
         <v>0</v>
       </c>
-      <c r="EF11" t="s">
-        <v>157</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>157</v>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
       </c>
       <c r="EI11">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="267">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -444,24 +444,33 @@
     <t>MBIRE</t>
   </si>
   <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
     <t>HURUNGWE</t>
   </si>
   <si>
     <t>CHITUNGWIZA</t>
   </si>
   <si>
-    <t>GOKWE SOUTH</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
@@ -471,10 +480,19 @@
     <t>25</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>176</t>
   </si>
   <si>
-    <t>16</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>31</t>
@@ -498,12 +516,24 @@
     <t>Angwa Clinic</t>
   </si>
   <si>
+    <t>Chemahororo Clinic</t>
+  </si>
+  <si>
     <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
+    <t>Chidodo Clinic</t>
+  </si>
+  <si>
     <t>Chiroti Clinic</t>
   </si>
   <si>
+    <t>Chirunya Clinic</t>
+  </si>
+  <si>
+    <t>Chitapo Clinic</t>
+  </si>
+  <si>
     <t>Chitsungo Mission Hospital</t>
   </si>
   <si>
@@ -513,6 +543,12 @@
     <t>Deve Clinic</t>
   </si>
   <si>
+    <t>Ganye Clinic</t>
+  </si>
+  <si>
+    <t>Gawa Clinic</t>
+  </si>
+  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
@@ -525,6 +561,9 @@
     <t>Mahuwe Clinic</t>
   </si>
   <si>
+    <t>Masomo Clinic</t>
+  </si>
+  <si>
     <t>Mushumbi RHC</t>
   </si>
   <si>
@@ -540,6 +579,9 @@
     <t>Zvipani Rural Health Centre</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -555,24 +597,24 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>91</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -585,6 +627,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -594,15 +639,9 @@
     <t>62</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -612,9 +651,6 @@
     <t>55</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -642,18 +678,27 @@
     <t>49</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>2025-05-28T10:22:30.010440Z</t>
   </si>
   <si>
+    <t>2025-05-28T12:50:57.725155Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:34.280966Z</t>
   </si>
   <si>
+    <t>2025-05-28T12:45:09.084237Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:34.666864Z</t>
   </si>
   <si>
+    <t>2025-05-28T12:37:19.994524Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:58:08.034541Z</t>
+  </si>
+  <si>
     <t>2025-05-28T10:05:11.440353Z</t>
   </si>
   <si>
@@ -663,6 +708,12 @@
     <t>2025-05-28T09:04:35.340185Z</t>
   </si>
   <si>
+    <t>2025-05-28T13:02:20.957948Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:07:18.783236Z</t>
+  </si>
+  <si>
     <t>2025-05-28T09:04:33.160767Z</t>
   </si>
   <si>
@@ -672,7 +723,10 @@
     <t>2025-05-28T09:04:36.000353Z</t>
   </si>
   <si>
-    <t>2025-05-28T11:04:46.655913Z</t>
+    <t>2025-05-28T12:33:30.415196Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:41:08.277259Z</t>
   </si>
   <si>
     <t>2025-05-28T10:40:20.907438Z</t>
@@ -703,12 +757,6 @@
   </si>
   <si>
     <t>165</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>21</t>
   </si>
   <si>
     <t>233</t>
@@ -1126,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EK16"/>
+  <dimension ref="A1:EK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1604,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1616,34 +1664,34 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="U2" t="s">
         <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="X2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AA2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AB2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1655,25 +1703,25 @@
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AK2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AL2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AM2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1703,25 +1751,25 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY2">
         <v>0</v>
       </c>
       <c r="AZ2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BA2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BB2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BC2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1748,25 +1796,25 @@
         <v>0</v>
       </c>
       <c r="BL2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="BM2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="BN2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BO2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="BP2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="BQ2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="BR2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1775,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="BW2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1790,25 +1838,25 @@
         <v>0</v>
       </c>
       <c r="CA2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="CB2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CE2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CF2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CG2" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1862,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="CY2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DB2">
         <v>0</v>
@@ -1877,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DF2">
         <v>0</v>
       </c>
       <c r="DG2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DJ2">
         <v>0</v>
       </c>
       <c r="DK2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DL2">
         <v>0</v>
@@ -1904,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="DP2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS2" t="s">
         <v>145</v>
@@ -1922,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="DV2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW2" t="s">
         <v>145</v>
       </c>
       <c r="DX2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DY2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC2">
         <v>0</v>
@@ -1952,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="EF2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EG2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI2">
         <v>0</v>
       </c>
       <c r="EJ2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK2">
         <v>0</v>
@@ -2004,8 +2052,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>156</v>
+      <c r="M3">
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2014,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2026,55 +2074,58 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
         <v>146</v>
       </c>
       <c r="V3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="W3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="X3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Y3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Z3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="AH3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AI3" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="AJ3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -2109,20 +2160,20 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
+      <c r="AW3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>163</v>
       </c>
       <c r="AZ3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
       </c>
       <c r="BB3">
         <v>0</v>
@@ -2155,25 +2206,25 @@
         <v>0</v>
       </c>
       <c r="BL3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="BM3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="BN3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="BO3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="BP3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="BQ3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2182,40 +2233,40 @@
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="BW3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>225</v>
+        <v>163</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
       </c>
       <c r="CA3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="CB3" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="CC3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="CD3" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>157</v>
+        <v>199</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -2268,24 +2319,30 @@
       <c r="CX3">
         <v>0</v>
       </c>
+      <c r="CY3" t="s">
+        <v>163</v>
+      </c>
       <c r="CZ3">
         <v>0</v>
       </c>
+      <c r="DA3" t="s">
+        <v>163</v>
+      </c>
       <c r="DB3">
         <v>0</v>
       </c>
+      <c r="DC3" t="s">
+        <v>163</v>
+      </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
-      <c r="DG3" t="s">
-        <v>157</v>
-      </c>
       <c r="DH3">
         <v>0</v>
       </c>
@@ -2299,10 +2356,16 @@
         <v>0</v>
       </c>
       <c r="DP3" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>163</v>
       </c>
       <c r="DR3" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>146</v>
       </c>
       <c r="DT3" t="s">
         <v>146</v>
@@ -2311,25 +2374,25 @@
         <v>0</v>
       </c>
       <c r="DV3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW3" t="s">
         <v>146</v>
       </c>
       <c r="DX3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EA3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>163</v>
       </c>
       <c r="EC3">
         <v>0</v>
@@ -2341,19 +2404,19 @@
         <v>0</v>
       </c>
       <c r="EF3" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="EG3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI3">
         <v>0</v>
       </c>
       <c r="EJ3" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>237</v>
+        <v>252</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -2367,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2393,8 +2456,8 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="M4" t="s">
+        <v>162</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2403,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2415,64 +2478,61 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="U4" t="s">
         <v>147</v>
       </c>
       <c r="V4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="W4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="X4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="Y4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Z4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>163</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>212</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="AH4" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="AI4" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="AJ4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>163</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AM4" t="s">
-        <v>157</v>
+      <c r="AM4">
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -2501,26 +2561,26 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>157</v>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>163</v>
       </c>
       <c r="BB4">
         <v>0</v>
       </c>
-      <c r="BC4" t="s">
-        <v>157</v>
+      <c r="BC4">
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -2547,25 +2607,25 @@
         <v>0</v>
       </c>
       <c r="BL4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="BM4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="BN4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="BO4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="BP4" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="BQ4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2574,40 +2634,40 @@
         <v>0</v>
       </c>
       <c r="BV4" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="BW4" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>243</v>
       </c>
       <c r="BZ4">
         <v>0</v>
       </c>
       <c r="CA4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="CB4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="CC4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="CD4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
+        <v>204</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>163</v>
       </c>
       <c r="CG4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2660,39 +2720,30 @@
       <c r="CX4">
         <v>0</v>
       </c>
-      <c r="CY4" t="s">
-        <v>157</v>
-      </c>
       <c r="CZ4">
         <v>0</v>
       </c>
-      <c r="DA4" t="s">
-        <v>157</v>
-      </c>
       <c r="DB4">
         <v>0</v>
       </c>
-      <c r="DC4" t="s">
-        <v>157</v>
-      </c>
       <c r="DD4">
         <v>0</v>
       </c>
       <c r="DE4" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="DF4">
         <v>0</v>
       </c>
+      <c r="DG4" t="s">
+        <v>163</v>
+      </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DJ4">
         <v>0</v>
       </c>
-      <c r="DK4" t="s">
-        <v>157</v>
-      </c>
       <c r="DL4">
         <v>0</v>
       </c>
@@ -2700,16 +2751,10 @@
         <v>0</v>
       </c>
       <c r="DP4" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR4" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="DT4" t="s">
         <v>147</v>
@@ -2718,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW4" t="s">
         <v>147</v>
       </c>
       <c r="DX4" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>157</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>157</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
       </c>
       <c r="EC4">
         <v>0</v>
@@ -2748,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="EF4" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="EG4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:141">
@@ -2789,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2800,8 +2845,8 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>156</v>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2810,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2822,58 +2867,61 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="U5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="V5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="W5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="X5" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="Y5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>200</v>
+        <v>163</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="AH5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>185</v>
+        <v>163</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5" t="s">
-        <v>157</v>
+      <c r="AL5">
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2906,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
-      <c r="BB5" t="s">
-        <v>157</v>
+      <c r="BB5">
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -2951,25 +2999,25 @@
         <v>0</v>
       </c>
       <c r="BL5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="BM5" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="BN5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="BO5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="BP5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ5" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="BR5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -2978,37 +3026,37 @@
         <v>0</v>
       </c>
       <c r="BV5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="BW5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX5" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>225</v>
+        <v>163</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
       </c>
       <c r="BZ5">
         <v>0</v>
       </c>
       <c r="CA5" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="CB5" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="CC5" t="s">
-        <v>195</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>157</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>185</v>
+        <v>199</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -3065,35 +3113,29 @@
         <v>0</v>
       </c>
       <c r="CY5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="CZ5">
         <v>0</v>
       </c>
       <c r="DA5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DB5">
         <v>0</v>
       </c>
       <c r="DC5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DD5">
         <v>0</v>
       </c>
-      <c r="DE5" t="s">
-        <v>185</v>
-      </c>
       <c r="DF5">
         <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
-      <c r="DI5" t="s">
-        <v>157</v>
-      </c>
       <c r="DJ5">
         <v>0</v>
       </c>
@@ -3104,37 +3146,43 @@
         <v>0</v>
       </c>
       <c r="DP5" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>163</v>
       </c>
       <c r="DR5" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>146</v>
       </c>
       <c r="DT5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DU5">
         <v>0</v>
       </c>
       <c r="DV5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DX5" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY5">
-        <v>0</v>
-      </c>
-      <c r="DZ5">
-        <v>0</v>
-      </c>
-      <c r="EA5">
-        <v>0</v>
-      </c>
-      <c r="EB5">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>163</v>
       </c>
       <c r="EC5">
         <v>0</v>
@@ -3146,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="EF5" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="EG5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI5">
         <v>0</v>
       </c>
       <c r="EJ5" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK5">
         <v>0</v>
@@ -3187,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3208,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3220,157 +3268,157 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="U6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Y6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="s">
         <v>195</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>206</v>
-      </c>
       <c r="BM6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="BN6" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="BO6" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="BP6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="BQ6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR6" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="BT6">
         <v>0</v>
@@ -3379,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="BV6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="BW6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY6">
         <v>0</v>
@@ -3394,43 +3442,43 @@
         <v>0</v>
       </c>
       <c r="CA6" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="CB6" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="CC6" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>157</v>
+        <v>192</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
-      <c r="CG6">
-        <v>0</v>
+      <c r="CG6" t="s">
+        <v>199</v>
       </c>
       <c r="CH6">
         <v>0</v>
       </c>
-      <c r="CI6" t="s">
-        <v>206</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>207</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>208</v>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
-      <c r="CM6" t="s">
-        <v>185</v>
+      <c r="CM6">
+        <v>0</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -3466,23 +3514,26 @@
         <v>0</v>
       </c>
       <c r="CY6" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="CZ6">
         <v>0</v>
       </c>
       <c r="DA6" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="DB6">
         <v>0</v>
       </c>
       <c r="DC6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="DD6">
         <v>0</v>
       </c>
+      <c r="DE6" t="s">
+        <v>163</v>
+      </c>
       <c r="DF6">
         <v>0</v>
       </c>
@@ -3492,6 +3543,9 @@
       <c r="DJ6">
         <v>0</v>
       </c>
+      <c r="DK6" t="s">
+        <v>163</v>
+      </c>
       <c r="DL6">
         <v>0</v>
       </c>
@@ -3499,43 +3553,43 @@
         <v>0</v>
       </c>
       <c r="DP6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS6" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="DT6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="DX6" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="DY6" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="DZ6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="EC6">
         <v>0</v>
@@ -3547,22 +3601,19 @@
         <v>0</v>
       </c>
       <c r="EF6" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="EG6" t="s">
-        <v>157</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK6">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:141">
@@ -3576,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3591,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3612,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3624,25 +3675,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="U7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="X7" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="Z7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3663,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AJ7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -3711,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="AW7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AZ7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -3756,25 +3807,25 @@
         <v>0</v>
       </c>
       <c r="BL7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="BM7" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="BN7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="BO7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="BP7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT7">
         <v>0</v>
@@ -3783,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="BV7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="BW7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY7">
         <v>0</v>
@@ -3798,16 +3849,16 @@
         <v>0</v>
       </c>
       <c r="CA7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="CB7" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="CC7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="CD7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -3870,25 +3921,25 @@
         <v>0</v>
       </c>
       <c r="CY7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="CZ7">
         <v>0</v>
       </c>
       <c r="DA7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DB7">
         <v>0</v>
       </c>
       <c r="DC7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DD7">
         <v>0</v>
       </c>
       <c r="DE7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DF7">
         <v>0</v>
@@ -3906,43 +3957,43 @@
         <v>0</v>
       </c>
       <c r="DP7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="DT7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DV7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="DX7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DY7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC7">
         <v>0</v>
@@ -3954,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="EF7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EG7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI7">
         <v>0</v>
       </c>
       <c r="EJ7" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:141">
@@ -3980,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3995,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4016,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4028,217 +4079,217 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W8" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="X8" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Y8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="s">
         <v>196</v>
       </c>
-      <c r="Z8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>183</v>
-      </c>
       <c r="BM8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BN8" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="s">
         <v>196</v>
       </c>
-      <c r="BO8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>215</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>157</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
-        <v>0</v>
-      </c>
-      <c r="CH8">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>183</v>
-      </c>
       <c r="CJ8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CK8" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="CL8" t="s">
-        <v>198</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>178</v>
+        <v>195</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
       </c>
       <c r="CN8">
         <v>0</v>
@@ -4274,32 +4325,29 @@
         <v>0</v>
       </c>
       <c r="CY8" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="CZ8">
         <v>0</v>
       </c>
       <c r="DA8" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="DB8">
         <v>0</v>
       </c>
       <c r="DC8" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="DD8">
         <v>0</v>
       </c>
       <c r="DE8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="DF8">
         <v>0</v>
       </c>
-      <c r="DG8" t="s">
-        <v>157</v>
-      </c>
       <c r="DH8">
         <v>0</v>
       </c>
@@ -4313,43 +4361,43 @@
         <v>0</v>
       </c>
       <c r="DP8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS8" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="DT8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DV8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DX8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="DY8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC8">
         <v>0</v>
@@ -4361,19 +4409,22 @@
         <v>0</v>
       </c>
       <c r="EF8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="EG8" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>163</v>
       </c>
       <c r="EI8">
         <v>0</v>
       </c>
       <c r="EJ8" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK8" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:141">
@@ -4387,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4401,8 +4452,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" t="s">
+        <v>151</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4413,8 +4464,8 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="M9" t="s">
+        <v>162</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -4423,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4435,61 +4486,58 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="U9" t="s">
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>176</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="W9" t="s">
+        <v>160</v>
+      </c>
+      <c r="X9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>212</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
+      <c r="AG9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>199</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
+      <c r="AL9" t="s">
+        <v>163</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -4521,23 +4569,23 @@
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
+      <c r="AW9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>163</v>
       </c>
       <c r="BA9">
         <v>0</v>
       </c>
-      <c r="BB9">
-        <v>0</v>
+      <c r="BB9" t="s">
+        <v>163</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -4567,25 +4615,25 @@
         <v>0</v>
       </c>
       <c r="BL9" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="BM9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BN9" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="BO9" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="BP9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ9" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="BR9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -4594,37 +4642,37 @@
         <v>0</v>
       </c>
       <c r="BV9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="BW9" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>243</v>
       </c>
       <c r="BZ9">
         <v>0</v>
       </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
-        <v>0</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
+      <c r="CA9" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>208</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>163</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>199</v>
       </c>
       <c r="CG9">
         <v>0</v>
@@ -4680,83 +4728,65 @@
       <c r="CX9">
         <v>0</v>
       </c>
-      <c r="CY9">
-        <v>0</v>
+      <c r="CY9" t="s">
+        <v>195</v>
       </c>
       <c r="CZ9">
         <v>0</v>
       </c>
-      <c r="DA9">
-        <v>0</v>
+      <c r="DA9" t="s">
+        <v>163</v>
       </c>
       <c r="DB9">
         <v>0</v>
       </c>
-      <c r="DC9">
-        <v>0</v>
+      <c r="DC9" t="s">
+        <v>163</v>
       </c>
       <c r="DD9">
         <v>0</v>
       </c>
-      <c r="DE9">
-        <v>0</v>
+      <c r="DE9" t="s">
+        <v>199</v>
       </c>
       <c r="DF9">
         <v>0</v>
       </c>
-      <c r="DG9">
-        <v>0</v>
-      </c>
       <c r="DH9">
         <v>0</v>
       </c>
-      <c r="DI9">
-        <v>0</v>
+      <c r="DI9" t="s">
+        <v>163</v>
       </c>
       <c r="DJ9">
         <v>0</v>
       </c>
-      <c r="DK9">
-        <v>0</v>
-      </c>
       <c r="DL9">
         <v>0</v>
       </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
       <c r="DO9">
         <v>0</v>
       </c>
-      <c r="DP9">
-        <v>0</v>
-      </c>
-      <c r="DQ9">
-        <v>0</v>
-      </c>
-      <c r="DR9">
-        <v>0</v>
-      </c>
-      <c r="DS9">
-        <v>0</v>
+      <c r="DP9" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>163</v>
       </c>
       <c r="DT9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
-      <c r="DV9">
-        <v>0</v>
-      </c>
-      <c r="DW9">
-        <v>0</v>
-      </c>
-      <c r="DX9">
-        <v>0</v>
+      <c r="DV9" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>151</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>163</v>
       </c>
       <c r="DY9">
         <v>0</v>
@@ -4779,20 +4809,17 @@
       <c r="EE9">
         <v>0</v>
       </c>
-      <c r="EF9">
-        <v>0</v>
-      </c>
-      <c r="EG9">
-        <v>0</v>
-      </c>
-      <c r="EH9">
-        <v>0</v>
+      <c r="EF9" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>163</v>
       </c>
       <c r="EI9">
         <v>0</v>
       </c>
       <c r="EJ9" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK9">
         <v>0</v>
@@ -4809,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4845,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -4857,31 +4884,31 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="U10" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="V10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W10" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="X10" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Y10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>180</v>
+        <v>208</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>180</v>
+        <v>163</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -4896,22 +4923,22 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="AH10" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AI10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>157</v>
+        <v>199</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -4944,22 +4971,22 @@
         <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -4989,25 +5016,25 @@
         <v>0</v>
       </c>
       <c r="BL10" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="BM10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="BN10" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="BO10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="BP10" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="BQ10" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="BR10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -5016,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="BV10" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="BW10" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY10">
         <v>0</v>
@@ -5031,22 +5058,22 @@
         <v>0</v>
       </c>
       <c r="CA10" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="CB10" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="CC10" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>180</v>
+        <v>163</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
       </c>
       <c r="CE10" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>180</v>
+        <v>163</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
       </c>
       <c r="CG10">
         <v>0</v>
@@ -5054,20 +5081,20 @@
       <c r="CH10">
         <v>0</v>
       </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
+      <c r="CI10" t="s">
+        <v>218</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>219</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>154</v>
       </c>
       <c r="CL10">
         <v>0</v>
       </c>
-      <c r="CM10">
-        <v>0</v>
+      <c r="CM10" t="s">
+        <v>199</v>
       </c>
       <c r="CN10">
         <v>0</v>
@@ -5103,38 +5130,29 @@
         <v>0</v>
       </c>
       <c r="CY10" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="CZ10">
         <v>0</v>
       </c>
       <c r="DA10" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="DB10">
         <v>0</v>
       </c>
       <c r="DC10" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="DD10">
         <v>0</v>
       </c>
-      <c r="DE10" t="s">
-        <v>157</v>
-      </c>
       <c r="DF10">
         <v>0</v>
       </c>
-      <c r="DG10" t="s">
-        <v>157</v>
-      </c>
       <c r="DH10">
         <v>0</v>
       </c>
-      <c r="DI10" t="s">
-        <v>157</v>
-      </c>
       <c r="DJ10">
         <v>0</v>
       </c>
@@ -5145,16 +5163,16 @@
         <v>0</v>
       </c>
       <c r="DP10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS10" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="DT10" t="s">
         <v>152</v>
@@ -5163,25 +5181,25 @@
         <v>0</v>
       </c>
       <c r="DV10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX10" t="s">
         <v>152</v>
       </c>
-      <c r="DX10" t="s">
-        <v>157</v>
-      </c>
       <c r="DY10" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="DZ10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="EC10">
         <v>0</v>
@@ -5193,19 +5211,22 @@
         <v>0</v>
       </c>
       <c r="EF10" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="EG10" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>163</v>
       </c>
       <c r="EI10">
         <v>0</v>
       </c>
       <c r="EJ10" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>238</v>
+        <v>252</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:141">
@@ -5219,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5233,8 +5254,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>153</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5245,8 +5266,8 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>156</v>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -5255,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -5267,25 +5288,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>168</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="U11" t="s">
+        <v>153</v>
       </c>
       <c r="V11" t="s">
-        <v>177</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="W11" t="s">
+        <v>193</v>
+      </c>
+      <c r="X11" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>195</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -5305,17 +5326,17 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
+      <c r="AG11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>163</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -5353,17 +5374,17 @@
       <c r="AV11">
         <v>0</v>
       </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
+      <c r="AW11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>163</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -5399,25 +5420,25 @@
         <v>0</v>
       </c>
       <c r="BL11" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="BM11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="BN11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BO11" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="BP11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -5426,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="BV11" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="BW11" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>163</v>
       </c>
       <c r="BY11">
         <v>0</v>
@@ -5440,17 +5461,17 @@
       <c r="BZ11">
         <v>0</v>
       </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
-      </c>
-      <c r="CC11">
-        <v>0</v>
-      </c>
-      <c r="CD11">
-        <v>0</v>
+      <c r="CA11" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>145</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>195</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -5512,95 +5533,80 @@
       <c r="CX11">
         <v>0</v>
       </c>
-      <c r="CY11">
-        <v>0</v>
+      <c r="CY11" t="s">
+        <v>163</v>
       </c>
       <c r="CZ11">
         <v>0</v>
       </c>
-      <c r="DA11">
-        <v>0</v>
+      <c r="DA11" t="s">
+        <v>163</v>
       </c>
       <c r="DB11">
         <v>0</v>
       </c>
-      <c r="DC11">
-        <v>0</v>
+      <c r="DC11" t="s">
+        <v>163</v>
       </c>
       <c r="DD11">
         <v>0</v>
       </c>
-      <c r="DE11">
-        <v>0</v>
+      <c r="DE11" t="s">
+        <v>163</v>
       </c>
       <c r="DF11">
         <v>0</v>
       </c>
-      <c r="DG11">
-        <v>0</v>
-      </c>
       <c r="DH11">
         <v>0</v>
       </c>
-      <c r="DI11">
-        <v>0</v>
-      </c>
       <c r="DJ11">
         <v>0</v>
       </c>
-      <c r="DK11">
-        <v>0</v>
-      </c>
       <c r="DL11">
         <v>0</v>
       </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DN11">
-        <v>0</v>
-      </c>
       <c r="DO11">
         <v>0</v>
       </c>
-      <c r="DP11">
-        <v>0</v>
-      </c>
-      <c r="DQ11">
-        <v>0</v>
-      </c>
-      <c r="DR11">
-        <v>0</v>
-      </c>
-      <c r="DS11">
-        <v>0</v>
+      <c r="DP11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>153</v>
       </c>
       <c r="DT11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="DU11">
         <v>0</v>
       </c>
-      <c r="DV11">
-        <v>0</v>
-      </c>
-      <c r="DW11">
-        <v>0</v>
-      </c>
-      <c r="DX11">
-        <v>0</v>
-      </c>
-      <c r="DY11">
-        <v>0</v>
-      </c>
-      <c r="DZ11">
-        <v>0</v>
-      </c>
-      <c r="EA11">
-        <v>0</v>
-      </c>
-      <c r="EB11">
-        <v>0</v>
+      <c r="DV11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>163</v>
       </c>
       <c r="EC11">
         <v>0</v>
@@ -5611,23 +5617,20 @@
       <c r="EE11">
         <v>0</v>
       </c>
-      <c r="EF11">
-        <v>0</v>
-      </c>
-      <c r="EG11">
-        <v>0</v>
-      </c>
-      <c r="EH11">
-        <v>0</v>
+      <c r="EF11" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>163</v>
       </c>
       <c r="EI11">
         <v>0</v>
       </c>
       <c r="EJ11" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK11">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:141">
@@ -5641,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5656,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5677,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -5689,31 +5692,31 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="U12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W12" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="X12" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Z12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" t="s">
-        <v>180</v>
+      <c r="AB12">
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -5728,22 +5731,22 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="AH12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="AI12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AJ12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12" t="s">
-        <v>157</v>
+      <c r="AL12">
+        <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -5776,22 +5779,22 @@
         <v>0</v>
       </c>
       <c r="AW12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AZ12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
-      <c r="BB12" t="s">
-        <v>157</v>
+      <c r="BB12">
+        <v>0</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -5821,25 +5824,25 @@
         <v>0</v>
       </c>
       <c r="BL12" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="BM12" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="BN12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BO12" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="BP12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ12" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="BR12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT12">
         <v>0</v>
@@ -5848,13 +5851,13 @@
         <v>0</v>
       </c>
       <c r="BV12" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BW12" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY12">
         <v>0</v>
@@ -5863,22 +5866,22 @@
         <v>0</v>
       </c>
       <c r="CA12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="CB12" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="CC12" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="CD12" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="CE12">
         <v>0</v>
       </c>
-      <c r="CF12" t="s">
-        <v>180</v>
+      <c r="CF12">
+        <v>0</v>
       </c>
       <c r="CG12">
         <v>0</v>
@@ -5886,17 +5889,17 @@
       <c r="CH12">
         <v>0</v>
       </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CL12">
-        <v>0</v>
+      <c r="CI12" t="s">
+        <v>160</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>160</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>195</v>
       </c>
       <c r="CM12">
         <v>0</v>
@@ -5935,25 +5938,25 @@
         <v>0</v>
       </c>
       <c r="CY12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="CZ12">
         <v>0</v>
       </c>
       <c r="DA12" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="DB12">
         <v>0</v>
       </c>
       <c r="DC12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DD12">
         <v>0</v>
       </c>
       <c r="DE12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DF12">
         <v>0</v>
@@ -5961,9 +5964,6 @@
       <c r="DH12">
         <v>0</v>
       </c>
-      <c r="DI12" t="s">
-        <v>157</v>
-      </c>
       <c r="DJ12">
         <v>0</v>
       </c>
@@ -5974,43 +5974,43 @@
         <v>0</v>
       </c>
       <c r="DP12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS12" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="DT12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DV12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="DX12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="DY12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC12">
         <v>0</v>
@@ -6022,16 +6022,16 @@
         <v>0</v>
       </c>
       <c r="EF12" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="EG12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI12">
         <v>0</v>
       </c>
       <c r="EJ12" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK12">
         <v>0</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -6096,22 +6096,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="U13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V13" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="X13" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y13" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -6135,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AI13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -6183,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="AW13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -6228,25 +6228,25 @@
         <v>0</v>
       </c>
       <c r="BL13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="BM13" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="BN13" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="BO13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BP13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -6255,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="BV13" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="BW13" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY13">
         <v>0</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="CA13" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="CB13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="CC13" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="CD13">
         <v>0</v>
@@ -6293,14 +6293,14 @@
       <c r="CH13">
         <v>0</v>
       </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
+      <c r="CI13" t="s">
+        <v>195</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>195</v>
       </c>
       <c r="CL13">
         <v>0</v>
@@ -6342,19 +6342,19 @@
         <v>0</v>
       </c>
       <c r="CY13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="CZ13">
         <v>0</v>
       </c>
       <c r="DA13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DB13">
         <v>0</v>
       </c>
       <c r="DC13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DD13">
         <v>0</v>
@@ -6375,43 +6375,43 @@
         <v>0</v>
       </c>
       <c r="DP13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DT13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DV13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="DX13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DY13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC13">
         <v>0</v>
@@ -6423,16 +6423,19 @@
         <v>0</v>
       </c>
       <c r="EF13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EG13" t="s">
-        <v>157</v>
+        <v>163</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>163</v>
       </c>
       <c r="EI13">
         <v>0</v>
       </c>
       <c r="EJ13" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK13">
         <v>0</v>
@@ -6464,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -6485,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -6497,29 +6500,29 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="U14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="V14" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="W14" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="X14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA14" t="s">
         <v>192</v>
       </c>
-      <c r="Y14" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
       <c r="AB14">
         <v>0</v>
       </c>
@@ -6536,19 +6539,19 @@
         <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="AH14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="AI14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="AJ14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>163</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -6584,19 +6587,19 @@
         <v>0</v>
       </c>
       <c r="AW14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AX14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AY14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AZ14" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>163</v>
       </c>
       <c r="BB14">
         <v>0</v>
@@ -6629,25 +6632,25 @@
         <v>0</v>
       </c>
       <c r="BL14" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="BM14" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP14" t="s">
         <v>192</v>
       </c>
-      <c r="BN14" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>157</v>
-      </c>
       <c r="BQ14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT14">
         <v>0</v>
@@ -6656,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="BV14" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="BW14" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="BX14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BY14">
         <v>0</v>
@@ -6671,44 +6674,44 @@
         <v>0</v>
       </c>
       <c r="CA14" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="CB14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>206</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM14" t="s">
         <v>192</v>
       </c>
-      <c r="CC14" t="s">
-        <v>187</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CG14">
-        <v>0</v>
-      </c>
-      <c r="CH14">
-        <v>0</v>
-      </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
-      <c r="CJ14">
-        <v>0</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CL14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
       <c r="CN14">
         <v>0</v>
       </c>
@@ -6743,29 +6746,32 @@
         <v>0</v>
       </c>
       <c r="CY14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="CZ14">
         <v>0</v>
       </c>
       <c r="DA14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="DB14">
         <v>0</v>
       </c>
       <c r="DC14" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="DD14">
         <v>0</v>
       </c>
       <c r="DE14" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="DF14">
         <v>0</v>
       </c>
+      <c r="DG14" t="s">
+        <v>163</v>
+      </c>
       <c r="DH14">
         <v>0</v>
       </c>
@@ -6779,43 +6785,43 @@
         <v>0</v>
       </c>
       <c r="DP14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DQ14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DR14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DS14" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="DT14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="DU14">
         <v>0</v>
       </c>
       <c r="DV14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DW14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="DX14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="DY14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="DZ14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EA14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EB14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EC14">
         <v>0</v>
@@ -6827,19 +6833,19 @@
         <v>0</v>
       </c>
       <c r="EF14" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="EG14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="EI14">
         <v>0</v>
       </c>
       <c r="EJ14" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK14">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:141">
@@ -6867,8 +6873,8 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>155</v>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -6889,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -6901,25 +6907,25 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>172</v>
-      </c>
-      <c r="U15" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>176</v>
-      </c>
-      <c r="W15" t="s">
-        <v>186</v>
-      </c>
-      <c r="X15" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>199</v>
+        <v>190</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -6939,17 +6945,17 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>174</v>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -6963,41 +6969,41 @@
       <c r="AN15">
         <v>0</v>
       </c>
-      <c r="AO15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>157</v>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
       </c>
       <c r="BA15">
         <v>0</v>
@@ -7011,47 +7017,47 @@
       <c r="BD15">
         <v>0</v>
       </c>
-      <c r="BE15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>157</v>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
       </c>
       <c r="BL15" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="BM15" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="BN15" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="BO15" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="BP15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BR15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BT15">
         <v>0</v>
@@ -7060,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="BV15" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="BW15" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>194</v>
+        <v>242</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
       </c>
       <c r="BY15">
         <v>0</v>
@@ -7074,17 +7080,17 @@
       <c r="BZ15">
         <v>0</v>
       </c>
-      <c r="CA15" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC15" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>157</v>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
       </c>
       <c r="CE15">
         <v>0</v>
@@ -7098,17 +7104,17 @@
       <c r="CH15">
         <v>0</v>
       </c>
-      <c r="CI15" t="s">
-        <v>226</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK15" t="s">
-        <v>197</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>199</v>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
       </c>
       <c r="CM15">
         <v>0</v>
@@ -7122,11 +7128,11 @@
       <c r="CP15">
         <v>0</v>
       </c>
-      <c r="CQ15" t="s">
-        <v>180</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>185</v>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
       </c>
       <c r="CS15">
         <v>0</v>
@@ -7146,104 +7152,119 @@
       <c r="CX15">
         <v>0</v>
       </c>
-      <c r="CY15" t="s">
-        <v>202</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>204</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>205</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>174</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>178</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>185</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>230</v>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="DU15">
         <v>0</v>
       </c>
-      <c r="DV15" t="s">
-        <v>178</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>231</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>180</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>185</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>180</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>194</v>
+      <c r="DV15">
+        <v>0</v>
+      </c>
+      <c r="DW15">
+        <v>0</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DY15">
+        <v>0</v>
+      </c>
+      <c r="DZ15">
+        <v>0</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
       </c>
       <c r="EC15">
         <v>0</v>
       </c>
-      <c r="ED15" t="s">
-        <v>232</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>232</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>235</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>180</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>185</v>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
       </c>
       <c r="EI15">
         <v>0</v>
       </c>
       <c r="EJ15" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="EK15">
         <v>0</v>
@@ -7260,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -7275,381 +7296,3203 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" t="s">
+        <v>190</v>
+      </c>
+      <c r="W16" t="s">
+        <v>192</v>
+      </c>
+      <c r="X16" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>195</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:141">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>180</v>
+      </c>
+      <c r="U17" t="s">
+        <v>157</v>
+      </c>
+      <c r="V17" t="s">
+        <v>191</v>
+      </c>
+      <c r="W17" t="s">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ17">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>194</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>199</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DF17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU17">
+        <v>0</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY17">
+        <v>0</v>
+      </c>
+      <c r="DZ17">
+        <v>0</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>160</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI17">
+        <v>0</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:141">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>181</v>
+      </c>
+      <c r="U18" t="s">
+        <v>158</v>
+      </c>
+      <c r="V18" t="s">
+        <v>190</v>
+      </c>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>199</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>236</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>155</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>199</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>0</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>158</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC18">
+        <v>0</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:141">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>182</v>
+      </c>
+      <c r="U19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" t="s">
+        <v>190</v>
+      </c>
+      <c r="W19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>237</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>0</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>199</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>199</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>159</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC19">
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>195</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:141">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>183</v>
+      </c>
+      <c r="U20" t="s">
+        <v>160</v>
+      </c>
+      <c r="V20" t="s">
+        <v>190</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>238</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC20">
+        <v>0</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:141">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" t="s">
+        <v>146</v>
+      </c>
+      <c r="V21" t="s">
+        <v>190</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>239</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>195</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21">
+        <v>0</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>0</v>
+      </c>
+      <c r="CK21">
+        <v>0</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>0</v>
+      </c>
+      <c r="CN21">
+        <v>0</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CP21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>0</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>0</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>146</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:141">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>185</v>
+      </c>
+      <c r="U22" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" t="s">
+        <v>190</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>214</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>244</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>210</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>211</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>0</v>
+      </c>
+      <c r="CO22">
+        <v>0</v>
+      </c>
+      <c r="CP22">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>199</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>214</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>216</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>217</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>188</v>
+      </c>
+      <c r="DF22" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>199</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>187</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>161</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>192</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>247</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>195</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>199</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>195</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>196</v>
+      </c>
+      <c r="EC22">
+        <v>0</v>
+      </c>
+      <c r="ED22" t="s">
+        <v>248</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>248</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>251</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>195</v>
+      </c>
+      <c r="EH22" t="s">
+        <v>199</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:141">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>145</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>173</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>186</v>
+      </c>
+      <c r="U23" t="s">
         <v>145</v>
       </c>
-      <c r="V16" t="s">
-        <v>176</v>
-      </c>
-      <c r="W16" t="s">
-        <v>185</v>
-      </c>
-      <c r="X16" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>185</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>178</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>157</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>185</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>157</v>
-      </c>
-      <c r="BT16">
-        <v>0</v>
-      </c>
-      <c r="BU16">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>223</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>157</v>
-      </c>
-      <c r="BY16">
-        <v>0</v>
-      </c>
-      <c r="BZ16">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>185</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD16">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF16">
-        <v>0</v>
-      </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
-        <v>0</v>
-      </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
-      <c r="CK16">
-        <v>0</v>
-      </c>
-      <c r="CL16">
-        <v>0</v>
-      </c>
-      <c r="CM16">
-        <v>0</v>
-      </c>
-      <c r="CN16">
-        <v>0</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
-      </c>
-      <c r="CP16">
-        <v>0</v>
-      </c>
-      <c r="CQ16">
-        <v>0</v>
-      </c>
-      <c r="CR16">
-        <v>0</v>
-      </c>
-      <c r="CS16">
-        <v>0</v>
-      </c>
-      <c r="CT16">
-        <v>0</v>
-      </c>
-      <c r="CU16">
-        <v>0</v>
-      </c>
-      <c r="CV16">
-        <v>0</v>
-      </c>
-      <c r="CW16">
-        <v>0</v>
-      </c>
-      <c r="CX16">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>157</v>
-      </c>
-      <c r="CZ16">
-        <v>0</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DB16">
-        <v>0</v>
-      </c>
-      <c r="DC16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DD16">
-        <v>0</v>
-      </c>
-      <c r="DF16">
-        <v>0</v>
-      </c>
-      <c r="DG16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DH16">
-        <v>0</v>
-      </c>
-      <c r="DJ16">
-        <v>0</v>
-      </c>
-      <c r="DL16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS16" t="s">
+      <c r="V23" t="s">
+        <v>190</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>241</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF23">
+        <v>0</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>0</v>
+      </c>
+      <c r="CK23">
+        <v>0</v>
+      </c>
+      <c r="CL23">
+        <v>0</v>
+      </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>0</v>
+      </c>
+      <c r="CO23">
+        <v>0</v>
+      </c>
+      <c r="CP23">
+        <v>0</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>0</v>
+      </c>
+      <c r="CT23">
+        <v>0</v>
+      </c>
+      <c r="CU23">
+        <v>0</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB23">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <v>0</v>
+      </c>
+      <c r="DO23">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS23" t="s">
         <v>145</v>
       </c>
-      <c r="DT16" t="s">
+      <c r="DT23" t="s">
         <v>145</v>
       </c>
-      <c r="DU16">
-        <v>0</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW16" t="s">
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW23" t="s">
         <v>145</v>
       </c>
-      <c r="DX16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EC16">
-        <v>0</v>
-      </c>
-      <c r="ED16">
-        <v>0</v>
-      </c>
-      <c r="EE16">
-        <v>0</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>157</v>
-      </c>
-      <c r="EI16">
-        <v>0</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>236</v>
-      </c>
-      <c r="EK16">
+      <c r="DX23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC23">
+        <v>0</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23" t="s">
+        <v>252</v>
+      </c>
+      <c r="EK23">
         <v>0</v>
       </c>
     </row>
@@ -7706,16 +10549,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7766,7 +10609,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -7780,162 +10623,162 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7949,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -7969,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -7989,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -8009,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12229" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12255" uniqueCount="786">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2152,7 +2152,7 @@
     <t>2025-05-30T09:27:57.825189Z</t>
   </si>
   <si>
-    <t>2025-06-11T12:58:25.754145Z</t>
+    <t>2025-06-12T12:16:06.575018Z</t>
   </si>
   <si>
     <t>2025-05-27T17:17:21.994464Z</t>
@@ -2321,6 +2321,9 @@
   </si>
   <si>
     <t>total_mcs_referred_to_service</t>
+  </si>
+  <si>
+    <t>Sexuial and reproductive health</t>
   </si>
   <si>
     <t>keloids</t>
@@ -95705,7 +95708,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -95716,8 +95719,8 @@
       <c r="L228">
         <v>0</v>
       </c>
-      <c r="M228">
-        <v>0</v>
+      <c r="M228" t="s">
+        <v>258</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -95726,7 +95729,7 @@
         <v>0</v>
       </c>
       <c r="P228" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -95741,34 +95744,34 @@
         <v>428</v>
       </c>
       <c r="U228" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V228" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W228" t="s">
         <v>234</v>
       </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
+      <c r="X228" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>259</v>
       </c>
       <c r="AB228" t="s">
         <v>215</v>
       </c>
-      <c r="AC228">
-        <v>0</v>
-      </c>
-      <c r="AD228">
-        <v>0</v>
-      </c>
-      <c r="AE228">
-        <v>0</v>
+      <c r="AC228" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>473</v>
       </c>
       <c r="AF228">
         <v>0</v>
@@ -95779,8 +95782,8 @@
       <c r="AH228" t="s">
         <v>170</v>
       </c>
-      <c r="AI228">
-        <v>0</v>
+      <c r="AI228" t="s">
+        <v>180</v>
       </c>
       <c r="AJ228">
         <v>0</v>
@@ -95791,8 +95794,8 @@
       <c r="AL228" t="s">
         <v>215</v>
       </c>
-      <c r="AM228">
-        <v>0</v>
+      <c r="AM228" t="s">
+        <v>234</v>
       </c>
       <c r="AN228">
         <v>0</v>
@@ -95873,7 +95876,7 @@
         <v>170</v>
       </c>
       <c r="BN228" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="BO228" t="s">
         <v>259</v>
@@ -95885,7 +95888,7 @@
         <v>215</v>
       </c>
       <c r="BR228" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="BT228">
         <v>0</v>
@@ -95900,58 +95903,58 @@
         <v>146</v>
       </c>
       <c r="BX228" t="s">
-        <v>259</v>
-      </c>
-      <c r="BY228">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="BY228" t="s">
+        <v>748</v>
       </c>
       <c r="BZ228">
         <v>0</v>
       </c>
       <c r="CA228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD228">
+        <v>0</v>
+      </c>
+      <c r="CE228">
+        <v>0</v>
+      </c>
+      <c r="CF228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CG228" t="s">
+        <v>259</v>
+      </c>
+      <c r="CH228">
+        <v>0</v>
+      </c>
+      <c r="CI228" t="s">
         <v>234</v>
       </c>
-      <c r="CB228" t="s">
+      <c r="CJ228" t="s">
         <v>170</v>
       </c>
-      <c r="CC228">
-        <v>0</v>
-      </c>
-      <c r="CD228">
-        <v>0</v>
-      </c>
-      <c r="CE228">
-        <v>0</v>
-      </c>
-      <c r="CF228" t="s">
+      <c r="CK228" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL228">
+        <v>0</v>
+      </c>
+      <c r="CM228">
+        <v>0</v>
+      </c>
+      <c r="CN228" t="s">
         <v>215</v>
       </c>
-      <c r="CG228">
-        <v>0</v>
-      </c>
-      <c r="CH228">
-        <v>0</v>
-      </c>
-      <c r="CI228">
-        <v>0</v>
-      </c>
-      <c r="CJ228">
-        <v>0</v>
-      </c>
-      <c r="CK228">
-        <v>0</v>
-      </c>
-      <c r="CL228">
-        <v>0</v>
-      </c>
-      <c r="CM228">
-        <v>0</v>
-      </c>
-      <c r="CN228">
-        <v>0</v>
-      </c>
-      <c r="CO228">
-        <v>0</v>
+      <c r="CO228" t="s">
+        <v>234</v>
       </c>
       <c r="CP228">
         <v>0</v>
@@ -96007,17 +96010,11 @@
       <c r="DP228" t="s">
         <v>259</v>
       </c>
-      <c r="DQ228" t="s">
-        <v>259</v>
-      </c>
       <c r="DR228">
         <v>0</v>
       </c>
-      <c r="DS228" t="s">
-        <v>259</v>
-      </c>
       <c r="DT228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="DU228">
         <v>0</v>
@@ -96026,10 +96023,10 @@
         <v>259</v>
       </c>
       <c r="DW228" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="DX228" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="DY228" t="s">
         <v>259</v>
@@ -96040,8 +96037,8 @@
       <c r="EA228" t="s">
         <v>168</v>
       </c>
-      <c r="EB228" t="s">
-        <v>259</v>
+      <c r="EB228">
+        <v>0</v>
       </c>
       <c r="EC228">
         <v>0</v>
@@ -96053,7 +96050,7 @@
         <v>0</v>
       </c>
       <c r="EF228" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="EG228">
         <v>0</v>
@@ -111055,7 +111052,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -111089,22 +111086,19 @@
         <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
         <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" t="s">
         <v>483</v>
-      </c>
-      <c r="F2" t="s">
-        <v>779</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -111112,22 +111106,19 @@
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
         <v>768</v>
       </c>
       <c r="F3" t="s">
         <v>483</v>
-      </c>
-      <c r="G3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -111144,10 +111135,10 @@
         <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F4" t="s">
-        <v>483</v>
+        <v>780</v>
       </c>
       <c r="G4" t="s">
         <v>215</v>
@@ -111158,7 +111149,7 @@
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
         <v>151</v>
@@ -111167,13 +111158,13 @@
         <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F5" t="s">
         <v>483</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -111181,7 +111172,7 @@
         <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
@@ -111196,7 +111187,7 @@
         <v>483</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -111219,27 +111210,27 @@
         <v>483</v>
       </c>
       <c r="G7" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
         <v>484</v>
       </c>
       <c r="F8" t="s">
-        <v>749</v>
+        <v>483</v>
       </c>
       <c r="G8" t="s">
         <v>234</v>
@@ -111247,22 +111238,25 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
         <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>481</v>
+        <v>770</v>
       </c>
       <c r="F9" t="s">
-        <v>749</v>
+        <v>483</v>
+      </c>
+      <c r="G9" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -111270,22 +111264,22 @@
         <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
         <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>770</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>749</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -111293,22 +111287,19 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
         <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>771</v>
+        <v>481</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
-      </c>
-      <c r="G11" t="s">
-        <v>215</v>
+        <v>749</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -111325,13 +111316,13 @@
         <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F12" t="s">
         <v>483</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -111347,13 +111338,22 @@
       <c r="D13" t="s">
         <v>164</v>
       </c>
+      <c r="E13" t="s">
+        <v>772</v>
+      </c>
+      <c r="F13" t="s">
+        <v>483</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="C14" t="s">
         <v>151</v>
@@ -111365,7 +111365,10 @@
         <v>773</v>
       </c>
       <c r="F14" t="s">
-        <v>780</v>
+        <v>483</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -111373,19 +111376,13 @@
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>449</v>
       </c>
       <c r="C15" t="s">
         <v>151</v>
       </c>
       <c r="D15" t="s">
         <v>164</v>
-      </c>
-      <c r="E15" t="s">
-        <v>774</v>
-      </c>
-      <c r="F15" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -111402,7 +111399,7 @@
         <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F16" t="s">
         <v>781</v>
@@ -111422,10 +111419,10 @@
         <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>484</v>
+        <v>775</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>781</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -111433,7 +111430,7 @@
         <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -111442,7 +111439,7 @@
         <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
         <v>782</v>
@@ -111453,7 +111450,7 @@
         <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>429</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
         <v>151</v>
@@ -111462,10 +111459,10 @@
         <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>776</v>
+        <v>484</v>
       </c>
       <c r="F19" t="s">
-        <v>783</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -111482,10 +111479,10 @@
         <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>484</v>
+        <v>776</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -111502,7 +111499,7 @@
         <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>777</v>
       </c>
       <c r="F21" t="s">
         <v>784</v>
@@ -111522,10 +111519,10 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>774</v>
+        <v>484</v>
       </c>
       <c r="F22" t="s">
-        <v>782</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -111542,10 +111539,10 @@
         <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>777</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
-        <v>483</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -111562,10 +111559,10 @@
         <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F24" t="s">
-        <v>483</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -111582,27 +111579,27 @@
         <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="F25" t="s">
-        <v>782</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="C26" t="s">
         <v>151</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>484</v>
+        <v>779</v>
       </c>
       <c r="F26" t="s">
         <v>483</v>
@@ -111613,24 +111610,24 @@
         <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="C27" t="s">
         <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
+        <v>769</v>
       </c>
       <c r="F27" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
         <v>160</v>
@@ -111642,10 +111639,10 @@
         <v>160</v>
       </c>
       <c r="E28" t="s">
+        <v>484</v>
+      </c>
+      <c r="F28" t="s">
         <v>483</v>
-      </c>
-      <c r="F28" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -111653,18 +111650,58 @@
         <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
         <v>151</v>
       </c>
       <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" t="s">
+        <v>481</v>
+      </c>
+      <c r="F29" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" t="s">
+        <v>483</v>
+      </c>
+      <c r="F30" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
         <v>158</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
         <v>482</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>483</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12255" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12268" uniqueCount="786">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2002,7 +2002,7 @@
     <t>2025-06-10T10:00:38.783947Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:05:48.951632Z</t>
+    <t>2025-06-12T12:20:17.324703Z</t>
   </si>
   <si>
     <t>2025-06-03T06:53:22.778137Z</t>
@@ -75307,7 +75307,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -75318,8 +75318,8 @@
       <c r="L178">
         <v>0</v>
       </c>
-      <c r="M178">
-        <v>0</v>
+      <c r="M178" t="s">
+        <v>258</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -75328,7 +75328,7 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q178">
         <v>0</v>
@@ -75343,37 +75343,34 @@
         <v>392</v>
       </c>
       <c r="U178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="V178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W178" t="s">
         <v>234</v>
       </c>
       <c r="X178" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
-        <v>0</v>
-      </c>
-      <c r="AB178">
-        <v>0</v>
-      </c>
-      <c r="AC178">
-        <v>0</v>
-      </c>
-      <c r="AD178">
-        <v>0</v>
-      </c>
-      <c r="AE178">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>473</v>
       </c>
       <c r="AF178">
         <v>0</v>
@@ -75382,16 +75379,16 @@
         <v>234</v>
       </c>
       <c r="AH178" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI178">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>215</v>
       </c>
       <c r="AJ178">
         <v>0</v>
       </c>
-      <c r="AK178">
-        <v>0</v>
+      <c r="AK178" t="s">
+        <v>215</v>
       </c>
       <c r="AL178">
         <v>0</v>
@@ -75475,16 +75472,16 @@
         <v>234</v>
       </c>
       <c r="BM178" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="BN178" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="BO178" t="s">
         <v>259</v>
       </c>
       <c r="BP178" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="BQ178" t="s">
         <v>259</v>
@@ -75507,50 +75504,50 @@
       <c r="BX178" t="s">
         <v>259</v>
       </c>
-      <c r="BY178">
-        <v>0</v>
+      <c r="BY178" t="s">
+        <v>748</v>
       </c>
       <c r="BZ178">
         <v>0</v>
       </c>
       <c r="CA178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CB178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CC178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CD178">
+        <v>0</v>
+      </c>
+      <c r="CE178" t="s">
+        <v>259</v>
+      </c>
+      <c r="CF178">
+        <v>0</v>
+      </c>
+      <c r="CG178">
+        <v>0</v>
+      </c>
+      <c r="CH178">
+        <v>0</v>
+      </c>
+      <c r="CI178" t="s">
         <v>234</v>
       </c>
-      <c r="CB178" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC178">
-        <v>0</v>
-      </c>
-      <c r="CD178">
-        <v>0</v>
-      </c>
-      <c r="CE178">
-        <v>0</v>
-      </c>
-      <c r="CF178">
-        <v>0</v>
-      </c>
-      <c r="CG178">
-        <v>0</v>
-      </c>
-      <c r="CH178">
-        <v>0</v>
-      </c>
-      <c r="CI178">
-        <v>0</v>
-      </c>
-      <c r="CJ178">
-        <v>0</v>
-      </c>
-      <c r="CK178">
-        <v>0</v>
+      <c r="CJ178" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK178" t="s">
+        <v>215</v>
       </c>
       <c r="CL178">
         <v>0</v>
       </c>
-      <c r="CM178">
-        <v>0</v>
+      <c r="CM178" t="s">
+        <v>215</v>
       </c>
       <c r="CN178">
         <v>0</v>
@@ -75612,41 +75609,35 @@
       <c r="DP178" t="s">
         <v>259</v>
       </c>
-      <c r="DQ178" t="s">
-        <v>259</v>
-      </c>
       <c r="DR178">
         <v>0</v>
       </c>
-      <c r="DS178" t="s">
-        <v>259</v>
-      </c>
       <c r="DT178" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU178">
+        <v>0</v>
+      </c>
+      <c r="DV178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DW178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DX178" t="s">
+        <v>168</v>
+      </c>
+      <c r="DY178" t="s">
+        <v>259</v>
+      </c>
+      <c r="DZ178" t="s">
+        <v>259</v>
+      </c>
+      <c r="EA178" t="s">
         <v>215</v>
       </c>
-      <c r="DU178">
-        <v>0</v>
-      </c>
-      <c r="DV178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DW178" t="s">
-        <v>215</v>
-      </c>
-      <c r="DX178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DY178" t="s">
-        <v>259</v>
-      </c>
-      <c r="DZ178" t="s">
-        <v>259</v>
-      </c>
-      <c r="EA178" t="s">
-        <v>259</v>
-      </c>
-      <c r="EB178" t="s">
-        <v>259</v>
+      <c r="EB178">
+        <v>0</v>
       </c>
       <c r="EC178">
         <v>0</v>
@@ -75658,7 +75649,7 @@
         <v>0</v>
       </c>
       <c r="EF178" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="EG178">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12300" uniqueCount="786">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2146,7 +2146,7 @@
     <t>2025-06-10T10:11:38.947534Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:04:39.735643Z</t>
+    <t>2025-06-12T12:30:42.528492Z</t>
   </si>
   <si>
     <t>2025-05-30T09:27:57.825189Z</t>
@@ -94885,7 +94885,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -94896,8 +94896,8 @@
       <c r="L226">
         <v>0</v>
       </c>
-      <c r="M226">
-        <v>0</v>
+      <c r="M226" t="s">
+        <v>257</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -94906,7 +94906,7 @@
         <v>0</v>
       </c>
       <c r="P226" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -94921,37 +94921,34 @@
         <v>426</v>
       </c>
       <c r="U226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="V226" t="s">
-        <v>459</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="W226" t="s">
+        <v>258</v>
       </c>
       <c r="X226" t="s">
         <v>461</v>
       </c>
       <c r="Y226" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB226" t="s">
         <v>233</v>
       </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
-        <v>0</v>
-      </c>
-      <c r="AB226">
-        <v>0</v>
-      </c>
-      <c r="AC226">
-        <v>0</v>
-      </c>
-      <c r="AD226">
-        <v>0</v>
-      </c>
-      <c r="AE226">
-        <v>0</v>
+      <c r="AC226" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>473</v>
       </c>
       <c r="AF226">
         <v>0</v>
@@ -94963,19 +94960,19 @@
         <v>461</v>
       </c>
       <c r="AI226" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>461</v>
+      </c>
+      <c r="AL226" t="s">
         <v>233</v>
       </c>
-      <c r="AJ226">
-        <v>0</v>
-      </c>
-      <c r="AK226">
-        <v>0</v>
-      </c>
-      <c r="AL226">
-        <v>0</v>
-      </c>
-      <c r="AM226">
-        <v>0</v>
+      <c r="AM226" t="s">
+        <v>233</v>
       </c>
       <c r="AN226">
         <v>0</v>
@@ -95056,19 +95053,19 @@
         <v>461</v>
       </c>
       <c r="BN226" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO226" t="s">
+        <v>214</v>
+      </c>
+      <c r="BP226" t="s">
+        <v>461</v>
+      </c>
+      <c r="BQ226" t="s">
         <v>233</v>
       </c>
-      <c r="BO226" t="s">
-        <v>258</v>
-      </c>
-      <c r="BP226" t="s">
-        <v>258</v>
-      </c>
-      <c r="BQ226" t="s">
-        <v>258</v>
-      </c>
       <c r="BR226" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="BT226">
         <v>0</v>
@@ -95085,8 +95082,8 @@
       <c r="BX226" t="s">
         <v>258</v>
       </c>
-      <c r="BY226">
-        <v>0</v>
+      <c r="BY226" t="s">
+        <v>748</v>
       </c>
       <c r="BZ226">
         <v>0</v>
@@ -95095,46 +95092,46 @@
         <v>0</v>
       </c>
       <c r="CB226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG226" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH226">
+        <v>0</v>
+      </c>
+      <c r="CI226">
+        <v>0</v>
+      </c>
+      <c r="CJ226" t="s">
         <v>461</v>
       </c>
-      <c r="CC226" t="s">
+      <c r="CK226" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL226" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM226" t="s">
+        <v>461</v>
+      </c>
+      <c r="CN226" t="s">
         <v>233</v>
       </c>
-      <c r="CD226">
-        <v>0</v>
-      </c>
-      <c r="CE226">
-        <v>0</v>
-      </c>
-      <c r="CF226">
-        <v>0</v>
-      </c>
-      <c r="CG226">
-        <v>0</v>
-      </c>
-      <c r="CH226">
-        <v>0</v>
-      </c>
-      <c r="CI226">
-        <v>0</v>
-      </c>
-      <c r="CJ226">
-        <v>0</v>
-      </c>
-      <c r="CK226">
-        <v>0</v>
-      </c>
-      <c r="CL226">
-        <v>0</v>
-      </c>
-      <c r="CM226">
-        <v>0</v>
-      </c>
-      <c r="CN226">
-        <v>0</v>
-      </c>
-      <c r="CO226">
-        <v>0</v>
+      <c r="CO226" t="s">
+        <v>233</v>
       </c>
       <c r="CP226">
         <v>0</v>
@@ -95190,17 +95187,11 @@
       <c r="DP226" t="s">
         <v>258</v>
       </c>
-      <c r="DQ226" t="s">
-        <v>258</v>
-      </c>
       <c r="DR226">
         <v>0</v>
       </c>
-      <c r="DS226" t="s">
-        <v>258</v>
-      </c>
       <c r="DT226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="DU226">
         <v>0</v>
@@ -95209,10 +95200,10 @@
         <v>258</v>
       </c>
       <c r="DW226" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="DX226" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="DY226" t="s">
         <v>258</v>
@@ -95223,8 +95214,8 @@
       <c r="EA226" t="s">
         <v>180</v>
       </c>
-      <c r="EB226" t="s">
-        <v>258</v>
+      <c r="EB226">
+        <v>0</v>
       </c>
       <c r="EC226">
         <v>0</v>
@@ -95236,7 +95227,7 @@
         <v>0</v>
       </c>
       <c r="EF226" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="EG226">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12332" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="790">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1723,7 +1723,7 @@
     <t>2025-06-10T10:06:45.399857Z</t>
   </si>
   <si>
-    <t>2025-06-11T13:03:17.694202Z</t>
+    <t>2025-06-12T12:48:01.280653Z</t>
   </si>
   <si>
     <t>2025-05-29T13:26:46.459924Z</t>
@@ -2323,6 +2323,18 @@
     <t>total_mcs_referred_to_service</t>
   </si>
   <si>
+    <t>sexual and reproductive health</t>
+  </si>
+  <si>
+    <t>malaria</t>
+  </si>
+  <si>
+    <t>psycho social</t>
+  </si>
+  <si>
+    <t>Psyco social</t>
+  </si>
+  <si>
     <t>Sexuial and reproductive health</t>
   </si>
   <si>
@@ -37120,7 +37132,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -37131,8 +37143,8 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85">
-        <v>0</v>
+      <c r="M85" t="s">
+        <v>257</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -37141,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -37156,37 +37168,34 @@
         <v>321</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="V85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W85" t="s">
         <v>461</v>
       </c>
       <c r="X85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="Y85" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z85" t="s">
         <v>214</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
+      <c r="AA85" t="s">
+        <v>214</v>
       </c>
       <c r="AB85" t="s">
         <v>214</v>
       </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
-        <v>0</v>
+      <c r="AC85" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>473</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -37195,22 +37204,22 @@
         <v>461</v>
       </c>
       <c r="AH85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="AI85" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ85" t="s">
         <v>214</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
-      <c r="AK85">
-        <v>0</v>
+      <c r="AK85" t="s">
+        <v>234</v>
       </c>
       <c r="AL85" t="s">
         <v>214</v>
       </c>
-      <c r="AM85">
-        <v>0</v>
+      <c r="AM85" t="s">
+        <v>234</v>
       </c>
       <c r="AN85">
         <v>0</v>
@@ -37251,8 +37260,8 @@
       <c r="AZ85">
         <v>0</v>
       </c>
-      <c r="BA85">
-        <v>0</v>
+      <c r="BA85" t="s">
+        <v>258</v>
       </c>
       <c r="BB85">
         <v>0</v>
@@ -37288,22 +37297,22 @@
         <v>461</v>
       </c>
       <c r="BM85" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="BN85" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO85" t="s">
         <v>214</v>
       </c>
-      <c r="BO85" t="s">
-        <v>258</v>
-      </c>
       <c r="BP85" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="BQ85" t="s">
         <v>214</v>
       </c>
       <c r="BR85" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="BT85">
         <v>0</v>
@@ -37318,58 +37327,58 @@
         <v>146</v>
       </c>
       <c r="BX85" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY85">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="BY85" t="s">
+        <v>748</v>
       </c>
       <c r="BZ85">
         <v>0</v>
       </c>
       <c r="CA85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CF85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH85">
+        <v>0</v>
+      </c>
+      <c r="CI85" t="s">
         <v>461</v>
       </c>
-      <c r="CB85" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC85" t="s">
+      <c r="CJ85" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK85" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL85" t="s">
         <v>214</v>
       </c>
-      <c r="CD85">
-        <v>0</v>
-      </c>
-      <c r="CE85">
-        <v>0</v>
-      </c>
-      <c r="CF85" t="s">
+      <c r="CM85" t="s">
         <v>214</v>
       </c>
-      <c r="CG85">
-        <v>0</v>
-      </c>
-      <c r="CH85">
-        <v>0</v>
-      </c>
-      <c r="CI85">
-        <v>0</v>
-      </c>
-      <c r="CJ85">
-        <v>0</v>
-      </c>
-      <c r="CK85">
-        <v>0</v>
-      </c>
-      <c r="CL85">
-        <v>0</v>
-      </c>
-      <c r="CM85">
-        <v>0</v>
-      </c>
-      <c r="CN85">
-        <v>0</v>
-      </c>
-      <c r="CO85">
-        <v>0</v>
+      <c r="CN85" t="s">
+        <v>214</v>
+      </c>
+      <c r="CO85" t="s">
+        <v>234</v>
       </c>
       <c r="CP85">
         <v>0</v>
@@ -37410,6 +37419,9 @@
       <c r="DF85">
         <v>0</v>
       </c>
+      <c r="DG85" t="s">
+        <v>234</v>
+      </c>
       <c r="DH85">
         <v>0</v>
       </c>
@@ -37425,17 +37437,11 @@
       <c r="DP85" t="s">
         <v>258</v>
       </c>
-      <c r="DQ85" t="s">
-        <v>258</v>
-      </c>
       <c r="DR85">
         <v>0</v>
       </c>
-      <c r="DS85" t="s">
-        <v>258</v>
-      </c>
       <c r="DT85" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="DU85">
         <v>0</v>
@@ -37444,10 +37450,10 @@
         <v>258</v>
       </c>
       <c r="DW85" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="DX85" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="DY85" t="s">
         <v>258</v>
@@ -37458,8 +37464,8 @@
       <c r="EA85" t="s">
         <v>169</v>
       </c>
-      <c r="EB85" t="s">
-        <v>258</v>
+      <c r="EB85">
+        <v>0</v>
       </c>
       <c r="EC85">
         <v>0</v>
@@ -37471,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="EF85" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="EG85">
         <v>0</v>
@@ -111007,7 +111013,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -111041,7 +111047,7 @@
         <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
         <v>151</v>
@@ -111050,10 +111056,13 @@
         <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>768</v>
       </c>
       <c r="F2" t="s">
         <v>483</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -111061,7 +111070,7 @@
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
@@ -111070,10 +111079,13 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F3" t="s">
         <v>483</v>
+      </c>
+      <c r="G3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -111081,22 +111093,19 @@
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
         <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
+        <v>770</v>
+      </c>
+      <c r="F4" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" t="s">
-        <v>780</v>
-      </c>
-      <c r="G4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -111104,16 +111113,16 @@
         <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F5" t="s">
         <v>483</v>
@@ -111127,22 +111136,19 @@
         <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
         <v>484</v>
       </c>
       <c r="F6" t="s">
         <v>483</v>
-      </c>
-      <c r="G6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -111150,22 +111156,19 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
         <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F7" t="s">
         <v>483</v>
-      </c>
-      <c r="G7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -111173,7 +111176,7 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
         <v>151</v>
@@ -111182,13 +111185,13 @@
         <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
-        <v>483</v>
+        <v>784</v>
       </c>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -111196,7 +111199,7 @@
         <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C9" t="s">
         <v>151</v>
@@ -111205,7 +111208,7 @@
         <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F9" t="s">
         <v>483</v>
@@ -111216,50 +111219,53 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
         <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E10" t="s">
         <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>749</v>
+        <v>483</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
         <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>481</v>
+        <v>773</v>
       </c>
       <c r="F11" t="s">
-        <v>749</v>
+        <v>483</v>
+      </c>
+      <c r="G11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>448</v>
@@ -111271,18 +111277,18 @@
         <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
         <v>483</v>
       </c>
       <c r="G12" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>448</v>
@@ -111294,13 +111300,13 @@
         <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F13" t="s">
         <v>483</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -111308,19 +111314,19 @@
         <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="C14" t="s">
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>773</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
-        <v>483</v>
+        <v>749</v>
       </c>
       <c r="G14" t="s">
         <v>234</v>
@@ -111331,13 +111337,19 @@
         <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
         <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="E15" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -111345,7 +111357,7 @@
         <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>
@@ -111354,18 +111366,21 @@
         <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F16" t="s">
-        <v>781</v>
+        <v>483</v>
+      </c>
+      <c r="G16" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
@@ -111374,18 +111389,21 @@
         <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
-        <v>781</v>
+        <v>483</v>
+      </c>
+      <c r="G17" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
@@ -111394,18 +111412,21 @@
         <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
-        <v>782</v>
+        <v>483</v>
+      </c>
+      <c r="G18" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>448</v>
       </c>
       <c r="C19" t="s">
         <v>151</v>
@@ -111413,19 +111434,13 @@
       <c r="D19" t="s">
         <v>164</v>
       </c>
-      <c r="E19" t="s">
-        <v>484</v>
-      </c>
-      <c r="F19" t="s">
-        <v>483</v>
-      </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
         <v>151</v>
@@ -111434,18 +111449,18 @@
         <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F20" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
         <v>151</v>
@@ -111454,18 +111469,18 @@
         <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
         <v>151</v>
@@ -111474,18 +111489,18 @@
         <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>773</v>
       </c>
       <c r="F22" t="s">
-        <v>483</v>
+        <v>786</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
         <v>151</v>
@@ -111497,10 +111512,10 @@
         <v>484</v>
       </c>
       <c r="F23" t="s">
-        <v>785</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -111514,13 +111529,13 @@
         <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F24" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -111534,13 +111549,13 @@
         <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F25" t="s">
-        <v>483</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -111554,13 +111569,13 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>779</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -111574,89 +111589,169 @@
         <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>769</v>
+        <v>484</v>
       </c>
       <c r="F27" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="C28" t="s">
         <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>779</v>
       </c>
       <c r="F28" t="s">
-        <v>483</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="C29" t="s">
         <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E29" t="s">
-        <v>481</v>
+        <v>782</v>
       </c>
       <c r="F29" t="s">
-        <v>749</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>428</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
+        <v>783</v>
+      </c>
+      <c r="F30" t="s">
         <v>483</v>
       </c>
-      <c r="F30" t="s">
-        <v>484</v>
-      </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="C31" t="s">
         <v>151</v>
       </c>
       <c r="D31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>773</v>
+      </c>
+      <c r="F31" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>481</v>
+      </c>
+      <c r="F33" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>483</v>
+      </c>
+      <c r="F34" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
         <v>158</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
         <v>482</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
         <v>483</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12396" uniqueCount="790">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1471,7 +1471,7 @@
     <t>OPD</t>
   </si>
   <si>
-    <t>hypertension</t>
+    <t>malaria</t>
   </si>
   <si>
     <t>2025-05-28T10:22:30.010440Z</t>
@@ -2236,7 +2236,7 @@
     <t>2025-06-11T10:21:55.306924Z</t>
   </si>
   <si>
-    <t>2025-06-11T12:54:48.060777Z</t>
+    <t>2025-06-12T12:51:46.809490Z</t>
   </si>
   <si>
     <t>2025-06-02T13:11:37.076308Z</t>
@@ -2267,6 +2267,9 @@
   </si>
   <si>
     <t>OI</t>
+  </si>
+  <si>
+    <t>hypertension</t>
   </si>
   <si>
     <t>165</t>
@@ -2324,9 +2327,6 @@
   </si>
   <si>
     <t>sexual and reproductive health</t>
-  </si>
-  <si>
-    <t>malaria</t>
   </si>
   <si>
     <t>psycho social</t>
@@ -6452,13 +6452,13 @@
         <v>0</v>
       </c>
       <c r="EM9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="EN9" t="s">
         <v>151</v>
       </c>
       <c r="EO9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:145">
@@ -16657,7 +16657,7 @@
         <v>151</v>
       </c>
       <c r="EO34" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:145">
@@ -17058,7 +17058,7 @@
         <v>151</v>
       </c>
       <c r="EO35" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:145">
@@ -17465,7 +17465,7 @@
         <v>151</v>
       </c>
       <c r="EO36" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:145">
@@ -18294,7 +18294,7 @@
         <v>151</v>
       </c>
       <c r="EO38" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:145">
@@ -26036,7 +26036,7 @@
         <v>151</v>
       </c>
       <c r="EO57" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:145">
@@ -26871,7 +26871,7 @@
         <v>151</v>
       </c>
       <c r="EO59" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="60" spans="1:145">
@@ -27655,10 +27655,10 @@
         <v>0</v>
       </c>
       <c r="ED61" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EE61" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EF61" t="s">
         <v>200</v>
@@ -29301,7 +29301,7 @@
         <v>0</v>
       </c>
       <c r="EF65" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="EG65" t="s">
         <v>258</v>
@@ -29717,7 +29717,7 @@
         <v>0</v>
       </c>
       <c r="EF66" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="EG66">
         <v>0</v>
@@ -29735,7 +29735,7 @@
         <v>180</v>
       </c>
       <c r="EM66" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="EN66" t="s">
         <v>151</v>
@@ -32186,7 +32186,7 @@
         <v>151</v>
       </c>
       <c r="EO72" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="73" spans="1:145">
@@ -32602,7 +32602,7 @@
         <v>151</v>
       </c>
       <c r="EO73" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:145">
@@ -38674,7 +38674,7 @@
         <v>258</v>
       </c>
       <c r="DS88" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="DT88" t="s">
         <v>213</v>
@@ -38737,7 +38737,7 @@
         <v>151</v>
       </c>
       <c r="EO88" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:145">
@@ -40799,7 +40799,7 @@
         <v>151</v>
       </c>
       <c r="EO93" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="94" spans="1:145">
@@ -42840,7 +42840,7 @@
         <v>151</v>
       </c>
       <c r="EO98" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:145">
@@ -44097,7 +44097,7 @@
         <v>151</v>
       </c>
       <c r="EO101" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:145">
@@ -44926,7 +44926,7 @@
         <v>151</v>
       </c>
       <c r="EO103" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="104" spans="1:145">
@@ -47191,7 +47191,7 @@
         <v>0</v>
       </c>
       <c r="BZ109" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="CA109" t="s">
         <v>215</v>
@@ -47356,7 +47356,7 @@
         <v>0</v>
       </c>
       <c r="EF109" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="EG109">
         <v>0</v>
@@ -47781,7 +47781,7 @@
         <v>0</v>
       </c>
       <c r="EF110" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="EG110">
         <v>0</v>
@@ -47802,7 +47802,7 @@
         <v>0</v>
       </c>
       <c r="EM110" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="EN110" t="s">
         <v>151</v>
@@ -48646,7 +48646,7 @@
         <v>151</v>
       </c>
       <c r="EO112" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="113" spans="1:145">
@@ -49059,7 +49059,7 @@
         <v>151</v>
       </c>
       <c r="EO113" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="1:145">
@@ -58881,7 +58881,7 @@
         <v>151</v>
       </c>
       <c r="EO137" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="138" spans="1:145">
@@ -59288,7 +59288,7 @@
         <v>151</v>
       </c>
       <c r="EO138" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="139" spans="1:145">
@@ -64211,7 +64211,7 @@
         <v>151</v>
       </c>
       <c r="EO150" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:145">
@@ -77720,7 +77720,7 @@
         <v>151</v>
       </c>
       <c r="EO183" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:145">
@@ -79770,7 +79770,7 @@
         <v>151</v>
       </c>
       <c r="EO188" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:145">
@@ -94036,7 +94036,7 @@
         <v>151</v>
       </c>
       <c r="EO223" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="224" spans="1:145">
@@ -94440,7 +94440,7 @@
         <v>151</v>
       </c>
       <c r="EO224" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="225" spans="1:145">
@@ -96424,13 +96424,13 @@
         <v>0</v>
       </c>
       <c r="ED229" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EE229" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EF229" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="EG229" t="s">
         <v>214</v>
@@ -96849,7 +96849,7 @@
         <v>0</v>
       </c>
       <c r="EF230" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="EG230">
         <v>0</v>
@@ -97226,7 +97226,7 @@
         <v>0</v>
       </c>
       <c r="DS231" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="DT231" t="s">
         <v>244</v>
@@ -97265,7 +97265,7 @@
         <v>0</v>
       </c>
       <c r="EF231" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="EG231">
         <v>0</v>
@@ -100542,7 +100542,7 @@
         <v>151</v>
       </c>
       <c r="EO239" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="240" spans="1:145">
@@ -100946,7 +100946,7 @@
         <v>151</v>
       </c>
       <c r="EO240" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="241" spans="1:145">
@@ -103433,7 +103433,7 @@
         <v>151</v>
       </c>
       <c r="EO246" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="247" spans="1:145">
@@ -105052,7 +105052,7 @@
         <v>234</v>
       </c>
       <c r="EM250" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="EN250" t="s">
         <v>151</v>
@@ -107113,7 +107113,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -107124,8 +107124,8 @@
       <c r="L256">
         <v>0</v>
       </c>
-      <c r="M256">
-        <v>0</v>
+      <c r="M256" t="s">
+        <v>257</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -107134,7 +107134,7 @@
         <v>0</v>
       </c>
       <c r="P256" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -107149,10 +107149,10 @@
         <v>444</v>
       </c>
       <c r="U256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="V256" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W256" t="s">
         <v>234</v>
@@ -107161,25 +107161,22 @@
         <v>234</v>
       </c>
       <c r="Y256" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z256">
-        <v>0</v>
-      </c>
-      <c r="AA256">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>258</v>
       </c>
       <c r="AB256" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC256" t="s">
         <v>234</v>
       </c>
-      <c r="AC256">
-        <v>0</v>
-      </c>
-      <c r="AD256">
-        <v>0</v>
-      </c>
-      <c r="AE256">
-        <v>0</v>
+      <c r="AE256" t="s">
+        <v>473</v>
       </c>
       <c r="AF256">
         <v>0</v>
@@ -107191,19 +107188,19 @@
         <v>234</v>
       </c>
       <c r="AI256" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ256">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>461</v>
       </c>
       <c r="AK256">
         <v>0</v>
       </c>
       <c r="AL256" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM256" t="s">
         <v>234</v>
-      </c>
-      <c r="AM256">
-        <v>0</v>
       </c>
       <c r="AN256">
         <v>0</v>
@@ -107284,19 +107281,19 @@
         <v>234</v>
       </c>
       <c r="BN256" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="BO256" t="s">
-        <v>258</v>
+        <v>461</v>
       </c>
       <c r="BP256" t="s">
         <v>258</v>
       </c>
       <c r="BQ256" t="s">
+        <v>180</v>
+      </c>
+      <c r="BR256" t="s">
         <v>234</v>
-      </c>
-      <c r="BR256" t="s">
-        <v>258</v>
       </c>
       <c r="BT256">
         <v>0</v>
@@ -107313,57 +107310,57 @@
       <c r="BX256" t="s">
         <v>234</v>
       </c>
-      <c r="BY256">
-        <v>0</v>
+      <c r="BY256" t="s">
+        <v>748</v>
       </c>
       <c r="BZ256" t="s">
         <v>483</v>
       </c>
       <c r="CA256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CB256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CC256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CE256">
+        <v>0</v>
+      </c>
+      <c r="CF256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CG256" t="s">
+        <v>258</v>
+      </c>
+      <c r="CH256">
+        <v>0</v>
+      </c>
+      <c r="CI256" t="s">
         <v>234</v>
       </c>
-      <c r="CB256" t="s">
+      <c r="CJ256" t="s">
         <v>234</v>
       </c>
-      <c r="CC256" t="s">
-        <v>215</v>
-      </c>
-      <c r="CD256">
-        <v>0</v>
-      </c>
-      <c r="CE256">
-        <v>0</v>
-      </c>
-      <c r="CF256" t="s">
+      <c r="CK256" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL256" t="s">
+        <v>461</v>
+      </c>
+      <c r="CM256">
+        <v>0</v>
+      </c>
+      <c r="CN256" t="s">
+        <v>180</v>
+      </c>
+      <c r="CO256" t="s">
         <v>234</v>
       </c>
-      <c r="CG256">
-        <v>0</v>
-      </c>
-      <c r="CH256">
-        <v>0</v>
-      </c>
-      <c r="CI256">
-        <v>0</v>
-      </c>
-      <c r="CJ256">
-        <v>0</v>
-      </c>
-      <c r="CK256">
-        <v>0</v>
-      </c>
-      <c r="CL256">
-        <v>0</v>
-      </c>
-      <c r="CM256">
-        <v>0</v>
-      </c>
-      <c r="CN256">
-        <v>0</v>
-      </c>
-      <c r="CO256">
-        <v>0</v>
-      </c>
       <c r="CP256">
         <v>0</v>
       </c>
@@ -107418,17 +107415,11 @@
       <c r="DP256" t="s">
         <v>258</v>
       </c>
-      <c r="DQ256" t="s">
-        <v>258</v>
-      </c>
       <c r="DR256">
         <v>0</v>
       </c>
-      <c r="DS256" t="s">
-        <v>258</v>
-      </c>
       <c r="DT256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="DU256">
         <v>0</v>
@@ -107437,10 +107428,10 @@
         <v>258</v>
       </c>
       <c r="DW256" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="DX256" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="DY256" t="s">
         <v>258</v>
@@ -107451,8 +107442,8 @@
       <c r="EA256" t="s">
         <v>168</v>
       </c>
-      <c r="EB256" t="s">
-        <v>258</v>
+      <c r="EB256">
+        <v>0</v>
       </c>
       <c r="EC256">
         <v>0</v>
@@ -107464,7 +107455,7 @@
         <v>0</v>
       </c>
       <c r="EF256" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="EG256">
         <v>0</v>
@@ -108320,7 +108311,7 @@
         <v>151</v>
       </c>
       <c r="EO258" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="1:145">
@@ -109523,7 +109514,7 @@
         <v>0</v>
       </c>
       <c r="EF261" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="EG261">
         <v>0</v>
@@ -110878,7 +110869,7 @@
         <v>480</v>
       </c>
       <c r="L2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -110916,7 +110907,7 @@
         <v>480</v>
       </c>
       <c r="L3" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -110954,7 +110945,7 @@
         <v>480</v>
       </c>
       <c r="L4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -110989,7 +110980,7 @@
         <v>480</v>
       </c>
       <c r="L5" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -111013,7 +111004,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -111039,7 +111030,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -111056,7 +111047,7 @@
         <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F2" t="s">
         <v>483</v>
@@ -111079,7 +111070,7 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>769</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
         <v>483</v>
@@ -111145,7 +111136,7 @@
         <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F6" t="s">
         <v>483</v>
@@ -111231,7 +111222,7 @@
         <v>164</v>
       </c>
       <c r="E10" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F10" t="s">
         <v>483</v>
@@ -111277,7 +111268,7 @@
         <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F12" t="s">
         <v>483</v>
@@ -111323,7 +111314,7 @@
         <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F14" t="s">
         <v>749</v>
@@ -111509,7 +111500,7 @@
         <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F23" t="s">
         <v>483</v>
@@ -111569,7 +111560,7 @@
         <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F26" t="s">
         <v>483</v>
@@ -111589,7 +111580,7 @@
         <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>484</v>
+        <v>750</v>
       </c>
       <c r="F27" t="s">
         <v>789</v>
@@ -111697,7 +111688,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -111709,10 +111700,10 @@
         <v>160</v>
       </c>
       <c r="E33" t="s">
-        <v>481</v>
+        <v>750</v>
       </c>
       <c r="F33" t="s">
-        <v>749</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -111729,10 +111720,10 @@
         <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F34" t="s">
-        <v>484</v>
+        <v>749</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -111740,18 +111731,38 @@
         <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>151</v>
       </c>
       <c r="D35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>483</v>
+      </c>
+      <c r="F35" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
         <v>158</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
         <v>482</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>483</v>
       </c>
     </row>
